--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B430"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Google, LLC</t>
+          <t>Goldman Sachs &amp; Co.</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,7 +1862,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Greater Washington Black Chamber of Commerce</t>
+          <t>Google, LLC</t>
         </is>
       </c>
       <c r="B151">
@@ -1872,7 +1872,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Green Marble Group</t>
+          <t>Greater Washington Black Chamber of Commerce</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,7 +1882,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Grist Magazine, Inc.</t>
+          <t>Green Marble Group</t>
         </is>
       </c>
       <c r="B153">
@@ -1892,7 +1892,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Guidehouse, Inc.</t>
+          <t>Grist Magazine, Inc.</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Gulf of Maine Research Institute</t>
+          <t>Guidehouse, Inc.</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Harris, Wiltshire and Grannis, LLP</t>
+          <t>Gulf of Maine Research Institute</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hartford Foundation for Public Giving</t>
+          <t>Harris, Wiltshire and Grannis, LLP</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,7 +1932,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Harvard Environmental and Energy Law Program</t>
+          <t>Hartford Foundation for Public Giving</t>
         </is>
       </c>
       <c r="B158">
@@ -1942,27 +1942,27 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>Harvard Environmental and Energy Law Program</t>
         </is>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Harvard University</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Healing Justice Project</t>
+          <t>Harvard University</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Health Management Associates</t>
+          <t>Healing Justice Project</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,7 +1982,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Helena Foundation</t>
+          <t>Health Management Associates</t>
         </is>
       </c>
       <c r="B163">
@@ -1992,7 +1992,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>High Water Mark, LLC</t>
+          <t>Helena Foundation</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hills &amp; Company</t>
+          <t>High Water Mark, LLC</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hogan Lovells, LLP</t>
+          <t>Hills &amp; Company</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hope Enterprise Corporation</t>
+          <t>Hogan Lovells, LLP</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,7 +2032,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Housing Partnership Network</t>
+          <t>Hope Enterprise Corporation</t>
         </is>
       </c>
       <c r="B168">
@@ -2042,7 +2042,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Howard University</t>
+          <t>Housing Partnership Network</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hudson-Webber Foundation</t>
+          <t>Howard University</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Huntington Ingalls Industries</t>
+          <t>Hudson-Webber Foundation</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,7 +2072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hunton Andrews Kurth, LLP</t>
+          <t>Huntington Ingalls Industries</t>
         </is>
       </c>
       <c r="B172">
@@ -2082,7 +2082,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>HWC, Inc.</t>
+          <t>Hunton Andrews Kurth, LLP</t>
         </is>
       </c>
       <c r="B173">
@@ -2092,7 +2092,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>I AM ALS</t>
+          <t>HWC, Inc.</t>
         </is>
       </c>
       <c r="B174">
@@ -2102,27 +2102,27 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IDA Science and Technology Policy Institute</t>
+          <t>I AM ALS</t>
         </is>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Imbue Group, Inc.</t>
+          <t>IDA Science and Technology Policy Institute</t>
         </is>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Impact Master Holdings</t>
+          <t>Imbue Group, Inc.</t>
         </is>
       </c>
       <c r="B177">
@@ -2132,7 +2132,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>In-Q-Tel</t>
+          <t>Impact Master Holdings</t>
         </is>
       </c>
       <c r="B178">
@@ -2142,7 +2142,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Indiana University Maurer School of Law</t>
+          <t>In-Q-Tel</t>
         </is>
       </c>
       <c r="B179">
@@ -2152,7 +2152,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Indianapolis Airport Authority</t>
+          <t>Indiana University Maurer School of Law</t>
         </is>
       </c>
       <c r="B180">
@@ -2162,7 +2162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Innovative Emergency Management</t>
+          <t>Indianapolis Airport Authority</t>
         </is>
       </c>
       <c r="B181">
@@ -2172,7 +2172,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Institutes for Behavior Resources, Inc.</t>
+          <t>Innovative Emergency Management</t>
         </is>
       </c>
       <c r="B182">
@@ -2182,7 +2182,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>International Association of Machinists and Aerospace Workers</t>
+          <t>Institutes for Behavior Resources, Inc.</t>
         </is>
       </c>
       <c r="B183">
@@ -2192,7 +2192,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>International Brotherhood of Teamsters</t>
+          <t>International Association of Machinists and Aerospace Workers</t>
         </is>
       </c>
       <c r="B184">
@@ -2202,7 +2202,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>International Capital Strategies, LLC</t>
+          <t>International Brotherhood of Teamsters</t>
         </is>
       </c>
       <c r="B185">
@@ -2212,7 +2212,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>International Energy Agency</t>
+          <t>International Capital Strategies, LLC</t>
         </is>
       </c>
       <c r="B186">
@@ -2222,7 +2222,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>International Public Safety Data Institute</t>
+          <t>International Energy Agency</t>
         </is>
       </c>
       <c r="B187">
@@ -2232,7 +2232,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Jobs for the Future, Inc.</t>
+          <t>International Public Safety Data Institute</t>
         </is>
       </c>
       <c r="B188">
@@ -2242,7 +2242,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>John Jay College of Criminal Justice</t>
+          <t>Jobs for the Future, Inc.</t>
         </is>
       </c>
       <c r="B189">
@@ -2252,7 +2252,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Johns Hopkins University</t>
+          <t>John Jay College of Criminal Justice</t>
         </is>
       </c>
       <c r="B190">
@@ -2262,7 +2262,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Johns Hopkins University, School of Advanced International Studies</t>
+          <t>Johns Hopkins University</t>
         </is>
       </c>
       <c r="B191">
@@ -2272,7 +2272,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Jones Day</t>
+          <t>Johns Hopkins University, School of Advanced International Studies</t>
         </is>
       </c>
       <c r="B192">
@@ -2282,7 +2282,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co</t>
+          <t>Jones Day</t>
         </is>
       </c>
       <c r="B193">
@@ -2292,7 +2292,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Juggernaut, LLC</t>
+          <t>JPMorgan Chase &amp; Co</t>
         </is>
       </c>
       <c r="B194">
@@ -2302,7 +2302,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Justice Catalyst Law, Inc.</t>
+          <t>Juggernaut, LLC</t>
         </is>
       </c>
       <c r="B195">
@@ -2312,7 +2312,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KeyBank</t>
+          <t>Justice Catalyst Law, Inc.</t>
         </is>
       </c>
       <c r="B196">
@@ -2322,47 +2322,47 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins, LLP</t>
+          <t>KeyBank</t>
         </is>
       </c>
       <c r="B197">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Laudes Foundation</t>
+          <t>Latham &amp; Watkins, LLP</t>
         </is>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Learning Policy Institute</t>
+          <t>Laudes Foundation</t>
         </is>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LINK Houston</t>
+          <t>Learning Policy Institute</t>
         </is>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LinkedIn Corporation</t>
+          <t>LINK Houston</t>
         </is>
       </c>
       <c r="B201">
@@ -2372,7 +2372,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Linklaters LLP</t>
+          <t>LinkedIn Corporation</t>
         </is>
       </c>
       <c r="B202">
@@ -2382,7 +2382,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Los Angeles Community College District</t>
+          <t>Linklaters LLP</t>
         </is>
       </c>
       <c r="B203">
@@ -2392,7 +2392,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Los Angeles County Metropolitan Transportation Authority</t>
+          <t>Los Angeles Community College District</t>
         </is>
       </c>
       <c r="B204">
@@ -2402,7 +2402,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Los Angeles Homeless Services Authority</t>
+          <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
       </c>
       <c r="B205">
@@ -2412,7 +2412,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Lucky Dog Animal Rescue</t>
+          <t>Los Angeles Homeless Services Authority</t>
         </is>
       </c>
       <c r="B206">
@@ -2422,7 +2422,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Lyft, Inc.</t>
+          <t>Lucky Dog Animal Rescue</t>
         </is>
       </c>
       <c r="B207">
@@ -2432,27 +2432,27 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Manatt, Phelps and Phillips, LLP</t>
+          <t>Lyft, Inc.</t>
         </is>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>March of Dimes</t>
+          <t>Manatt, Phelps and Phillips, LLP</t>
         </is>
       </c>
       <c r="B209">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Marguerite Casey Foundation</t>
+          <t>March of Dimes</t>
         </is>
       </c>
       <c r="B210">
@@ -2462,17 +2462,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Markle Foundation</t>
+          <t>Marguerite Casey Foundation</t>
         </is>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Massachusetts Bay Transportation Authority</t>
+          <t>Markle Foundation</t>
         </is>
       </c>
       <c r="B212">
@@ -2482,27 +2482,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Massachusetts Bay Transportation Authority</t>
         </is>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MassMutual</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Mayer Brown, LLP</t>
+          <t>MassMutual</t>
         </is>
       </c>
       <c r="B215">
@@ -2512,7 +2512,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>McChrystal Group</t>
+          <t>Mayer Brown, LLP</t>
         </is>
       </c>
       <c r="B216">
@@ -2522,7 +2522,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>MediaMath</t>
+          <t>McChrystal Group</t>
         </is>
       </c>
       <c r="B217">
@@ -2532,7 +2532,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Medsphere Systems Corporation</t>
+          <t>MediaMath</t>
         </is>
       </c>
       <c r="B218">
@@ -2542,7 +2542,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MedStar Health</t>
+          <t>Medsphere Systems Corporation</t>
         </is>
       </c>
       <c r="B219">
@@ -2552,7 +2552,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Meow Wolf, Inc.</t>
+          <t>MedStar Health</t>
         </is>
       </c>
       <c r="B220">
@@ -2562,7 +2562,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>Meow Wolf, Inc.</t>
         </is>
       </c>
       <c r="B221">
@@ -2572,7 +2572,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Metropolitan Transportation Commission</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="B222">
@@ -2582,7 +2582,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Michigan State University</t>
+          <t>Metropolitan Transportation Commission</t>
         </is>
       </c>
       <c r="B223">
@@ -2592,7 +2592,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Middle East Broadcasting Networks (Retired)</t>
+          <t>Michigan State University</t>
         </is>
       </c>
       <c r="B224">
@@ -2602,7 +2602,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Migration Policy Institute</t>
+          <t>Middle East Broadcasting Networks (Retired)</t>
         </is>
       </c>
       <c r="B225">
@@ -2612,7 +2612,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Moneta Group</t>
+          <t>Migration Policy Institute</t>
         </is>
       </c>
       <c r="B226">
@@ -2622,7 +2622,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Morgan, Lewis &amp; Bockius, LLP</t>
+          <t>Moneta Group</t>
         </is>
       </c>
       <c r="B227">
@@ -2632,7 +2632,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Morrison &amp; Foerster LLC</t>
+          <t>Morgan, Lewis &amp; Bockius, LLP</t>
         </is>
       </c>
       <c r="B228">
@@ -2642,7 +2642,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Mortgage Bankers Association</t>
+          <t>Morrison &amp; Foerster LLC</t>
         </is>
       </c>
       <c r="B229">
@@ -2652,7 +2652,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>National Association for Latino Community Asset Builders</t>
+          <t>Mortgage Bankers Association</t>
         </is>
       </c>
       <c r="B230">
@@ -2662,7 +2662,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>National Association of Affordable Housing Lenders</t>
+          <t>National Association for Latino Community Asset Builders</t>
         </is>
       </c>
       <c r="B231">
@@ -2672,7 +2672,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>National Association of Letter Carriers</t>
+          <t>National Association of Affordable Housing Lenders</t>
         </is>
       </c>
       <c r="B232">
@@ -2682,7 +2682,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>National Audubon Society</t>
+          <t>National Association of Letter Carriers</t>
         </is>
       </c>
       <c r="B233">
@@ -2692,7 +2692,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>National Community Stabilization Trust</t>
+          <t>National Audubon Society</t>
         </is>
       </c>
       <c r="B234">
@@ -2702,7 +2702,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>National Conference on Citizenship</t>
+          <t>National Community Stabilization Trust</t>
         </is>
       </c>
       <c r="B235">
@@ -2712,7 +2712,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>National Credit Union Administration (Retired)</t>
+          <t>National Conference on Citizenship</t>
         </is>
       </c>
       <c r="B236">
@@ -2722,7 +2722,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>National Day Laborer Organizing Network (NDLON)</t>
+          <t>National Credit Union Administration (Retired)</t>
         </is>
       </c>
       <c r="B237">
@@ -2732,7 +2732,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>National Democratic Institute</t>
+          <t>National Day Laborer Organizing Network (NDLON)</t>
         </is>
       </c>
       <c r="B238">
@@ -2742,17 +2742,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>National Education Association</t>
+          <t>National Democratic Institute</t>
         </is>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>National Employment Law Project</t>
+          <t>National Education Association</t>
         </is>
       </c>
       <c r="B240">
@@ -2762,17 +2762,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>National Marine Sanctuary Foundation</t>
+          <t>National Employment Law Project</t>
         </is>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>National Oceanic and Atmospheric Administration (Retired)</t>
+          <t>National Energy Management Institute Committee</t>
         </is>
       </c>
       <c r="B242">
@@ -2782,7 +2782,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>National Resources Defense Council, Inc.</t>
+          <t>National Marine Sanctuary Foundation</t>
         </is>
       </c>
       <c r="B243">
@@ -2792,7 +2792,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>National Security Action</t>
+          <t>National Oceanic and Atmospheric Administration (Retired)</t>
         </is>
       </c>
       <c r="B244">
@@ -2802,7 +2802,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Native American Agriculture Fund</t>
+          <t>National Resources Defense Council, Inc.</t>
         </is>
       </c>
       <c r="B245">
@@ -2812,17 +2812,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>New America</t>
+          <t>National Security Action</t>
         </is>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>New Mexico State University</t>
+          <t>Native American Agriculture Fund</t>
         </is>
       </c>
       <c r="B247">
@@ -2832,17 +2832,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>New York City, Department of City Planning</t>
+          <t>New America</t>
         </is>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>New York City, Department of Transportation</t>
+          <t>New Mexico State University</t>
         </is>
       </c>
       <c r="B249">
@@ -2852,17 +2852,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>New York City, Department of City Planning</t>
         </is>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>New York University, Furman Center</t>
+          <t>New York City, Department of Transportation</t>
         </is>
       </c>
       <c r="B251">
@@ -2872,17 +2872,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>New York University, School of Law</t>
+          <t>New York University</t>
         </is>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Brennan Center for Justice</t>
+          <t>New York University, Furman Center</t>
         </is>
       </c>
       <c r="B253">
@@ -2892,7 +2892,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
+          <t>New York University, School of Law</t>
         </is>
       </c>
       <c r="B254">
@@ -2902,7 +2902,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
+          <t>New York University, School of Law, Brennan Center for Justice</t>
         </is>
       </c>
       <c r="B255">
@@ -2912,7 +2912,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Next Street</t>
+          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
         </is>
       </c>
       <c r="B256">
@@ -2922,7 +2922,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Northeastern University</t>
+          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
         </is>
       </c>
       <c r="B257">
@@ -2932,57 +2932,57 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Nuclear Threat Initiative</t>
+          <t>Next Street</t>
         </is>
       </c>
       <c r="B258">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>NYC Health + Hospitals</t>
+          <t>Northeastern University</t>
         </is>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Oatly</t>
+          <t>Nuclear Threat Initiative</t>
         </is>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ocean Wonks</t>
+          <t>NYC Health + Hospitals</t>
         </is>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Office of Senator Elizabeth Warren</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="B262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Office of the Attorney General for the District of Columbia</t>
+          <t>Ocean Wonks</t>
         </is>
       </c>
       <c r="B263">
@@ -2992,17 +2992,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Office of the Speaker, Maine State Legislature</t>
+          <t>Office of Senator Elizabeth Warren</t>
         </is>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>One Concern, Inc.</t>
+          <t>Office of the Attorney General for the District of Columbia</t>
         </is>
       </c>
       <c r="B265">
@@ -3012,7 +3012,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Open Education Global</t>
+          <t>Office of the Speaker, Maine State Legislature</t>
         </is>
       </c>
       <c r="B266">
@@ -3022,17 +3022,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Open Society Foundations</t>
+          <t>One Concern, Inc.</t>
         </is>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
+          <t>Open Education Global</t>
         </is>
       </c>
       <c r="B268">
@@ -3042,7 +3042,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Open Society Foundations</t>
         </is>
       </c>
       <c r="B269">
@@ -3052,7 +3052,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>OtherSide Consulting, LLC</t>
+          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
         </is>
       </c>
       <c r="B270">
@@ -3062,27 +3062,27 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Oversight Board Administration</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PA Democratic Party</t>
+          <t>OtherSide Consulting, LLC</t>
         </is>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Partnership for Public Service</t>
+          <t>Oversight Board Administration</t>
         </is>
       </c>
       <c r="B273">
@@ -3092,7 +3092,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PATH</t>
+          <t>PA Democratic Party</t>
         </is>
       </c>
       <c r="B274">
@@ -3102,7 +3102,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Paul Hastings, LLP</t>
+          <t>Partnership for Public Service</t>
         </is>
       </c>
       <c r="B275">
@@ -3112,7 +3112,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PEN America</t>
+          <t>PATH</t>
         </is>
       </c>
       <c r="B276">
@@ -3122,7 +3122,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PenFed Foundation</t>
+          <t>Paul Hastings, LLP</t>
         </is>
       </c>
       <c r="B277">
@@ -3132,7 +3132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>PEN America</t>
         </is>
       </c>
       <c r="B278">
@@ -3142,7 +3142,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Pew Charitable Trusts</t>
+          <t>PenFed Foundation</t>
         </is>
       </c>
       <c r="B279">
@@ -3152,7 +3152,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Philanthropy Northwest</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="B280">
@@ -3162,7 +3162,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B281">
@@ -3172,7 +3172,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Prudential PLC</t>
+          <t>Philanthropy Northwest</t>
         </is>
       </c>
       <c r="B282">
@@ -3182,7 +3182,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Public Knowledge</t>
+          <t>Princeton University</t>
         </is>
       </c>
       <c r="B283">
@@ -3192,7 +3192,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Public Private Strategies</t>
+          <t>Prudential PLC</t>
         </is>
       </c>
       <c r="B284">
@@ -3202,47 +3202,47 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>RAND Corporation</t>
+          <t>Public Knowledge</t>
         </is>
       </c>
       <c r="B285">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Rebellion Defense</t>
+          <t>Public Private Strategies</t>
         </is>
       </c>
       <c r="B286">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Red River Associates</t>
+          <t>RAND Corporation</t>
         </is>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Refugees International</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
+          <t>Red River Associates</t>
         </is>
       </c>
       <c r="B289">
@@ -3252,7 +3252,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
+          <t>Refugees International</t>
         </is>
       </c>
       <c r="B290">
@@ -3262,17 +3262,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Rocky Mountain Institute</t>
+          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
         </is>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Roosevelt Institute</t>
+          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
         </is>
       </c>
       <c r="B292">
@@ -3282,7 +3282,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Roti Modern Mediterranean</t>
+          <t>Rocky Mountain Institute</t>
         </is>
       </c>
       <c r="B293">
@@ -3292,17 +3292,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Salesforce.com, Inc.</t>
+          <t>Roosevelt Institute</t>
         </is>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Santa Clara University</t>
+          <t>Roti Modern Mediterranean</t>
         </is>
       </c>
       <c r="B295">
@@ -3312,7 +3312,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Schmidt Futures</t>
+          <t>Salesforce.com, Inc.</t>
         </is>
       </c>
       <c r="B296">
@@ -3322,17 +3322,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Santa Clara University</t>
         </is>
       </c>
       <c r="B297">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Senshi Ame Advisors, LLC</t>
+          <t>Schmidt Futures</t>
         </is>
       </c>
       <c r="B298">
@@ -3342,27 +3342,27 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Sequoia Capital Operations, LLC</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Service Employees International Union</t>
+          <t>Senshi Ame Advisors, LLC</t>
         </is>
       </c>
       <c r="B300">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
+          <t>Sequoia Capital Operations, LLC</t>
         </is>
       </c>
       <c r="B301">
@@ -3372,17 +3372,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Sherman Dunn, P.C.</t>
+          <t>Service Employees International Union</t>
         </is>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Sidewalk Labs</t>
+          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
         </is>
       </c>
       <c r="B303">
@@ -3392,7 +3392,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sidley Austin, LLP</t>
+          <t>Sherman Dunn, P.C.</t>
         </is>
       </c>
       <c r="B304">
@@ -3402,7 +3402,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SimpliFed</t>
+          <t>Sidewalk Labs</t>
         </is>
       </c>
       <c r="B305">
@@ -3412,7 +3412,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>Sidley Austin, LLP</t>
         </is>
       </c>
       <c r="B306">
@@ -3422,7 +3422,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Sophant Consulting</t>
+          <t>SimpliFed</t>
         </is>
       </c>
       <c r="B307">
@@ -3432,7 +3432,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="B308">
@@ -3442,17 +3442,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Sophant Consulting</t>
         </is>
       </c>
       <c r="B309">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>State of California</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="B310">
@@ -3462,17 +3462,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>State of California, Department of Industrial Relations</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>State of California</t>
         </is>
       </c>
       <c r="B312">
@@ -3482,7 +3482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>State of California, Office of Digital Innovation</t>
+          <t>State of California, Department of Industrial Relations</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,7 +3492,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>State of Illinois</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="B314">
@@ -3502,17 +3502,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>State of Michigan, Department of Health &amp; Human Services</t>
+          <t>State of California, Office of Digital Innovation</t>
         </is>
       </c>
       <c r="B315">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>State of Illinois</t>
         </is>
       </c>
       <c r="B316">
@@ -3522,27 +3522,27 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
         </is>
       </c>
       <c r="B317">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="B318">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>State of New York, Department of Financial Services</t>
+          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,17 +3552,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="B320">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>State of New York, Homes and Community Renewal</t>
+          <t>State of New York, Department of Financial Services</t>
         </is>
       </c>
       <c r="B321">
@@ -3572,7 +3572,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="B322">
@@ -3582,7 +3582,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>State of Oregon Department of Housing and Community Services</t>
+          <t>State of New York, Homes and Community Renewal</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,7 +3592,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="B324">
@@ -3602,7 +3602,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>State of Oregon Department of Housing and Community Services</t>
         </is>
       </c>
       <c r="B325">
@@ -3612,7 +3612,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Teach Plus, Inc</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,7 +3652,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Thaddeus Stevens College of Technology</t>
+          <t>Teach Plus, Inc</t>
         </is>
       </c>
       <c r="B330">
@@ -3662,17 +3662,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>The Aspen Institute</t>
+          <t>Thaddeus Stevens College of Technology</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,17 +3682,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>The Better Angels Society</t>
+          <t>The Aspen Institute</t>
         </is>
       </c>
       <c r="B334">
@@ -3702,7 +3702,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>The Center for Family Safety and Healing</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>The Century Foundation</t>
+          <t>The Better Angels Society</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,7 +3722,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>The Clark Group, LLC</t>
+          <t>The Center for Family Safety and Healing</t>
         </is>
       </c>
       <c r="B337">
@@ -3732,17 +3732,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The Cranemere Group</t>
+          <t>The Century Foundation</t>
         </is>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>The Education Trust</t>
+          <t>The Clark Group, LLC</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,17 +3752,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>The Estee Lauder Companies</t>
+          <t>The Cranemere Group</t>
         </is>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>The Education Trust</t>
         </is>
       </c>
       <c r="B341">
@@ -3772,17 +3772,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>The German Marshall Fund of the United States</t>
+          <t>The Estee Lauder Companies</t>
         </is>
       </c>
       <c r="B342">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,17 +3792,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>The Institute for College Access &amp; Success</t>
+          <t>The German Marshall Fund of the United States</t>
         </is>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="B345">
@@ -3812,7 +3812,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>The Institute for College Access &amp; Success</t>
         </is>
       </c>
       <c r="B346">
@@ -3822,17 +3822,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
         </is>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="B348">
@@ -3842,17 +3842,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The National Education Association</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>The Pew Charitable Trusts</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,7 +3882,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The Port of Seattle</t>
+          <t>The National Education Association</t>
         </is>
       </c>
       <c r="B353">
@@ -3892,7 +3892,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>The Raben Group, LLC</t>
+          <t>The Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B354">
@@ -3902,7 +3902,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>The ROC Group</t>
+          <t>The Port of Seattle</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,17 +3912,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>The Raben Group, LLC</t>
         </is>
       </c>
       <c r="B356">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>The ROC Group</t>
         </is>
       </c>
       <c r="B357">
@@ -3932,17 +3932,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>The Solidarity Center</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>The Stennis Center for Public Service</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
+          <t>The Solidarity Center</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,7 +3972,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The Stennis Center for Public Service</t>
         </is>
       </c>
       <c r="B362">
@@ -3982,7 +3982,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
         </is>
       </c>
       <c r="B363">
@@ -3992,7 +3992,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>The Washington Institute for Near East Policy</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Third Way</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Toffler Associates, Inc.</t>
+          <t>The Washington Institute for Near East Policy</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>Third Way</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Trinity University</t>
+          <t>Toffler Associates, Inc.</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,7 +4062,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>Trinity University</t>
         </is>
       </c>
       <c r="B371">
@@ -4072,7 +4072,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
         </is>
       </c>
       <c r="B372">
@@ -4082,7 +4082,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Trust for America’s Health</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,17 +4102,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>Trust for America’s Health</t>
         </is>
       </c>
       <c r="B375">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,17 +4122,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,17 +4142,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>UnidosUS</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>United Association</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,27 +4162,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>UnidosUS</t>
         </is>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>United Association</t>
         </is>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="B383">
@@ -4192,17 +4192,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,7 +4222,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Bernie Sanders</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="B387">
@@ -4232,7 +4232,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>United States Postal Service</t>
         </is>
       </c>
       <c r="B388">
@@ -4242,7 +4242,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,7 +4252,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>United States Senate, Office of Senator Bernie Sanders</t>
         </is>
       </c>
       <c r="B390">
@@ -4262,7 +4262,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="B391">
@@ -4272,17 +4272,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>University of California, Berkeley</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,47 +4292,47 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="B394">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>University of California, San Francisco</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="B395">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>University of Chicago, Harris School of Public Policy Studies</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>University of California, San Francisco</t>
         </is>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>University of Delaware</t>
+          <t>University of Chicago, Harris School of Public Policy Studies</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>University of Georgia</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,7 +4352,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
+          <t>University of Delaware</t>
         </is>
       </c>
       <c r="B400">
@@ -4362,7 +4362,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>University of Maryland, College Park</t>
+          <t>University of Georgia</t>
         </is>
       </c>
       <c r="B401">
@@ -4372,7 +4372,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="B402">
@@ -4382,17 +4382,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of Maryland, College Park</t>
         </is>
       </c>
       <c r="B403">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>University of Michigan Law School</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="B404">
@@ -4402,17 +4402,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>University of Michigan Law School</t>
         </is>
       </c>
       <c r="B406">
@@ -4422,17 +4422,17 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>University of Pittsburgh</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="B408">
@@ -4442,17 +4442,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>University of Texas at Austin</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>University of Texas at Austin, School of Law</t>
+          <t>University of Pittsburgh</t>
         </is>
       </c>
       <c r="B410">
@@ -4462,7 +4462,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Urban Alliance</t>
+          <t>University of Texas at Austin</t>
         </is>
       </c>
       <c r="B411">
@@ -4472,17 +4472,17 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>University of Texas at Austin, School of Law</t>
         </is>
       </c>
       <c r="B412">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>Urban Alliance</t>
         </is>
       </c>
       <c r="B413">
@@ -4492,17 +4492,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="B414">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="B415">
@@ -4512,67 +4512,67 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="B417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="B418">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="B419">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="B420">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="B422">
@@ -4582,17 +4582,17 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Wiley Rein, LLP</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="B423">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>WilmerHale, LLC</t>
+          <t>White &amp; Case, LLP</t>
         </is>
       </c>
       <c r="B424">
@@ -4602,7 +4602,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Women of Color Advancing Peace and Security</t>
+          <t>Wiley Rein, LLP</t>
         </is>
       </c>
       <c r="B425">
@@ -4612,7 +4612,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>WilmerHale, LLC</t>
         </is>
       </c>
       <c r="B426">
@@ -4622,7 +4622,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>Women of Color Advancing Peace and Security</t>
         </is>
       </c>
       <c r="B427">
@@ -4632,7 +4632,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>WorkMerk, LLC</t>
         </is>
       </c>
       <c r="B428">
@@ -4642,7 +4642,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Yale Law School</t>
+          <t>World Resources Institute</t>
         </is>
       </c>
       <c r="B429">
@@ -4652,10 +4652,30 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
+          <t>Wyss Foundation</t>
+        </is>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Yale Law School</t>
+        </is>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
           <t>Yale University</t>
         </is>
       </c>
-      <c r="B430">
+      <c r="B432">
         <v>3</v>
       </c>
     </row>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +402,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Access Living</t>
+          <t>21CP Solutions, LLC</t>
         </is>
       </c>
       <c r="B5">
@@ -412,7 +412,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Advocacy Blueprints, LLC</t>
+          <t>Access Living</t>
         </is>
       </c>
       <c r="B6">
@@ -422,87 +422,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AFL-CIO</t>
+          <t>Advocacy Blueprints, LLC</t>
         </is>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Air Line Pilots Association</t>
+          <t>AFL-CIO</t>
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Airbnb, Inc.</t>
+          <t>Air Line Pilots Association</t>
         </is>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Albright Stonebridge Group</t>
+          <t>Airbnb, Inc.</t>
         </is>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Alliance for American Manufacturing</t>
+          <t>Albright Stonebridge Group</t>
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alliance for Excellent Education</t>
+          <t>Alliance for American Manufacturing</t>
         </is>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alloy</t>
+          <t>Alliance for Excellent Education</t>
         </is>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Amalgamated Transit Union</t>
+          <t>Alloy</t>
         </is>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amalgamated Transit Union International</t>
+          <t>Amalgamated Transit Union</t>
         </is>
       </c>
       <c r="B15">
@@ -512,7 +512,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amazon Web Services</t>
+          <t>Amalgamated Transit Union International</t>
         </is>
       </c>
       <c r="B16">
@@ -522,7 +522,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amazon.com, Inc.</t>
+          <t>Amazon Web Services</t>
         </is>
       </c>
       <c r="B17">
@@ -532,7 +532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>America’s Voice</t>
+          <t>Amazon.com, Inc.</t>
         </is>
       </c>
       <c r="B18">
@@ -542,77 +542,77 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union</t>
+          <t>America’s Voice</t>
         </is>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union of Michigan</t>
+          <t>American Civil Liberties Union</t>
         </is>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>American Economic Liberties Project</t>
+          <t>American Civil Liberties Union of Michigan</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>American Federation of State, County and Municipal Employees</t>
+          <t>American Economic Liberties Project</t>
         </is>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>American Federation of Teachers</t>
+          <t>American Federation of Government Employees, AFL-CIO</t>
         </is>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>American National Standards Institute</t>
+          <t>American Federation of State, County and Municipal Employees</t>
         </is>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>American University, Washington College of Law</t>
+          <t>American Federation of Teachers</t>
         </is>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Americans for the Arts</t>
+          <t>American National Standards Institute</t>
         </is>
       </c>
       <c r="B26">
@@ -622,17 +622,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AMITA Health</t>
+          <t>American University, Washington College of Law</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ankura Consulting</t>
+          <t>Americans for the Arts</t>
         </is>
       </c>
       <c r="B28">
@@ -642,7 +642,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argonne National Laboratory</t>
+          <t>AMITA Health</t>
         </is>
       </c>
       <c r="B29">
@@ -652,7 +652,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Arizona State University</t>
+          <t>Ankura Consulting</t>
         </is>
       </c>
       <c r="B30">
@@ -662,7 +662,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
+          <t>Argonne National Laboratory</t>
         </is>
       </c>
       <c r="B31">
@@ -672,7 +672,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Arnold Ventures, LLC</t>
+          <t>Arizona State University</t>
         </is>
       </c>
       <c r="B32">
@@ -682,17 +682,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ascension</t>
+          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
         </is>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Association of American Medical Colleges</t>
+          <t>Arnold Ventures, LLC</t>
         </is>
       </c>
       <c r="B34">
@@ -702,17 +702,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Association of Science and Technology Centers</t>
+          <t>Ascension</t>
         </is>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atlas Research, LLC</t>
+          <t>Association of American Medical Colleges</t>
         </is>
       </c>
       <c r="B36">
@@ -722,7 +722,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Baltimore Regional Housing Partnership</t>
+          <t>Association of Science and Technology Centers</t>
         </is>
       </c>
       <c r="B37">
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bandera Electric Cooperative, Inc.</t>
+          <t>Atlas Research, LLC</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Barker Pitelka PLLC</t>
+          <t>Baltimore Regional Housing Partnership</t>
         </is>
       </c>
       <c r="B39">
@@ -752,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Better Markets, Inc.</t>
+          <t>Bandera Electric Cooperative, Inc.</t>
         </is>
       </c>
       <c r="B40">
@@ -762,47 +762,47 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BFPCC, Inc.</t>
+          <t>Barker Pitelka PLLC</t>
         </is>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>Better Markets, Inc.</t>
         </is>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bill &amp; Melinda Gates Foundation</t>
+          <t>BFPCC, Inc.</t>
         </is>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bipartisan Commission on Biodefense</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Birmingham Strong</t>
+          <t>Bill &amp; Melinda Gates Foundation</t>
         </is>
       </c>
       <c r="B45">
@@ -812,7 +812,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bloomberg Philanthropies</t>
+          <t>Bipartisan Commission on Biodefense</t>
         </is>
       </c>
       <c r="B46">
@@ -822,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Blue Crab Strategies</t>
+          <t>Birmingham Strong</t>
         </is>
       </c>
       <c r="B47">
@@ -832,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Blue Meridian Partners</t>
+          <t>Bloomberg Philanthropies</t>
         </is>
       </c>
       <c r="B48">
@@ -842,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Boies Schiller Flexner, LLP</t>
+          <t>Blue Crab Strategies</t>
         </is>
       </c>
       <c r="B49">
@@ -852,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Booz Allen Hamilton</t>
+          <t>Blue Meridian Partners</t>
         </is>
       </c>
       <c r="B50">
@@ -862,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Boston Consulting Group</t>
+          <t>Boies Schiller Flexner, LLP</t>
         </is>
       </c>
       <c r="B51">
@@ -872,7 +872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bread for the World</t>
+          <t>Booz Allen Hamilton</t>
         </is>
       </c>
       <c r="B52">
@@ -882,17 +882,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brighthive</t>
+          <t>Boston Consulting Group</t>
         </is>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brightside Benefit, Inc.</t>
+          <t>Bread for the World</t>
         </is>
       </c>
       <c r="B54">
@@ -902,7 +902,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bronx District Attorney’s Office</t>
+          <t>Brighthive</t>
         </is>
       </c>
       <c r="B55">
@@ -912,17 +912,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Brightside Benefit, Inc.</t>
         </is>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C-PACE Alliance</t>
+          <t>Bronx District Attorney’s Office</t>
         </is>
       </c>
       <c r="B57">
@@ -932,17 +932,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CACI International, Inc.</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>California Community Foundation</t>
+          <t>Brown, Goldstein &amp; Levy, LLP</t>
         </is>
       </c>
       <c r="B59">
@@ -952,7 +952,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>California Department of Financial Protection &amp; Innovation</t>
+          <t>C-PACE Alliance</t>
         </is>
       </c>
       <c r="B60">
@@ -962,7 +962,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>California Department of Transportation</t>
+          <t>CACI International, Inc.</t>
         </is>
       </c>
       <c r="B61">
@@ -972,7 +972,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>California Energy Commission</t>
+          <t>California Community Foundation</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Capital One Financial Corporation</t>
+          <t>California Department of Financial Protection &amp; Innovation</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Carbon180</t>
+          <t>California Department of Transportation</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,17 +1002,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>California Energy Commission</t>
         </is>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CareJourney</t>
+          <t>Capital One Financial Corporation</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
+          <t>Carbon180</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,27 +1032,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Center for a New American Security</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>CareJourney</t>
         </is>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Center for Community Self-Help</t>
+          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
         </is>
       </c>
       <c r="B70">
@@ -1062,37 +1062,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Center for Democracy in the Americas</t>
+          <t>Center for a New American Security</t>
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Center for Earth, Energy and Democracy</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Center for Global Development</t>
+          <t>Center for Community Self-Help</t>
         </is>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Center for Law and Social Policy</t>
+          <t>Center for Democracy in the Americas</t>
         </is>
       </c>
       <c r="B74">
@@ -1102,77 +1102,77 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Center for Strategic and International Studies</t>
+          <t>Center for Earth, Energy and Democracy</t>
         </is>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Center on Budget and Policy Priorities</t>
+          <t>Center for Global Development</t>
         </is>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Central Intelligence Agency (Retired)</t>
+          <t>Center for Law and Social Policy</t>
         </is>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Initiative</t>
+          <t>Center for Strategic and International Studies</t>
         </is>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>City of Los Angeles</t>
+          <t>Center on Budget and Policy Priorities</t>
         </is>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cityfi</t>
+          <t>Central Intelligence Agency (Retired)</t>
         </is>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Clifford Chance US, LLP</t>
+          <t>Chan Zuckerberg Initiative</t>
         </is>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Clio Strategies, LLC</t>
+          <t>City of Los Angeles</t>
         </is>
       </c>
       <c r="B82">
@@ -1182,7 +1182,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cloudflare, Inc.</t>
+          <t>Cityfi</t>
         </is>
       </c>
       <c r="B83">
@@ -1192,7 +1192,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CNKinder, Inc.</t>
+          <t>Clifford Chance US, LLP</t>
         </is>
       </c>
       <c r="B84">
@@ -1202,7 +1202,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Co-Equal</t>
+          <t>Clio Strategies, LLC</t>
         </is>
       </c>
       <c r="B85">
@@ -1212,7 +1212,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>College Promise Campaign</t>
+          <t>Cloudflare, Inc.</t>
         </is>
       </c>
       <c r="B86">
@@ -1222,7 +1222,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Colorado River Sustainability Campaign</t>
+          <t>CNKinder, Inc.</t>
         </is>
       </c>
       <c r="B87">
@@ -1232,17 +1232,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Columbia University</t>
+          <t>Co-Equal</t>
         </is>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Communications Workers of America</t>
+          <t>College Promise Campaign</t>
         </is>
       </c>
       <c r="B89">
@@ -1252,7 +1252,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Community Solutions</t>
+          <t>Colorado River Sustainability Campaign</t>
         </is>
       </c>
       <c r="B90">
@@ -1262,17 +1262,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Conference of Minority Transportation Officials</t>
+          <t>Columbia University</t>
         </is>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Connecticut Green Bank</t>
+          <t>Communications Workers of America</t>
         </is>
       </c>
       <c r="B92">
@@ -1282,7 +1282,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Cooley LLP</t>
+          <t>Community Solutions</t>
         </is>
       </c>
       <c r="B93">
@@ -1292,7 +1292,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Council on Foreign Relations</t>
+          <t>Conference of Minority Transportation Officials</t>
         </is>
       </c>
       <c r="B94">
@@ -1302,7 +1302,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cove Hill Partners</t>
+          <t>Connecticut Green Bank</t>
         </is>
       </c>
       <c r="B95">
@@ -1312,7 +1312,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP</t>
+          <t>Cooley LLP</t>
         </is>
       </c>
       <c r="B96">
@@ -1322,7 +1322,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Crowell &amp; Moring, LLP</t>
+          <t>Council on Foreign Relations</t>
         </is>
       </c>
       <c r="B97">
@@ -1332,7 +1332,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Dartmouth College</t>
+          <t>Cove Hill Partners</t>
         </is>
       </c>
       <c r="B98">
@@ -1342,7 +1342,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DataKind</t>
+          <t>Covington &amp; Burling LLP</t>
         </is>
       </c>
       <c r="B99">
@@ -1352,7 +1352,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Davis Polk &amp; Wardwell LLP</t>
+          <t>Crowell &amp; Moring, LLP</t>
         </is>
       </c>
       <c r="B100">
@@ -1362,7 +1362,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Delaware Department of Justice</t>
+          <t>Dartmouth College</t>
         </is>
       </c>
       <c r="B101">
@@ -1372,7 +1372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>DataKind</t>
         </is>
       </c>
       <c r="B102">
@@ -1382,7 +1382,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Deloitte &amp; Touche, LLP</t>
+          <t>Davis Polk &amp; Wardwell LLP</t>
         </is>
       </c>
       <c r="B103">
@@ -1392,7 +1392,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Deloitte Consulting LLC</t>
+          <t>Delaware Department of Justice</t>
         </is>
       </c>
       <c r="B104">
@@ -1402,7 +1402,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Deloitte Consulting, LLP</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
       <c r="B105">
@@ -1412,7 +1412,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Democracy Forward Foundation</t>
+          <t>Deloitte &amp; Touche, LLP</t>
         </is>
       </c>
       <c r="B106">
@@ -1422,7 +1422,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Democracy Fund</t>
+          <t>Deloitte Consulting LLC</t>
         </is>
       </c>
       <c r="B107">
@@ -1432,7 +1432,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Democratic National Committee</t>
+          <t>Deloitte Consulting, LLP</t>
         </is>
       </c>
       <c r="B108">
@@ -1442,7 +1442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Democratic National Committee — Coordinated Campaign</t>
+          <t>Democracy Forward Foundation</t>
         </is>
       </c>
       <c r="B109">
@@ -1452,7 +1452,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Democratic National Convention Committee</t>
+          <t>Democracy Fund</t>
         </is>
       </c>
       <c r="B110">
@@ -1462,27 +1462,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Department of State (Retired)</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Devoted Health</t>
+          <t>Democratic National Committee — Coordinated Campaign</t>
         </is>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Directors Guild of America</t>
+          <t>Democratic National Convention Committee</t>
         </is>
       </c>
       <c r="B113">
@@ -1492,7 +1492,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>District Department of Transportation</t>
+          <t>Department of State (Retired)</t>
         </is>
       </c>
       <c r="B114">
@@ -1502,17 +1502,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>District of Columbia, Commission on the Arts and Humanities</t>
+          <t>Devoted Health</t>
         </is>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DKC Public Relations</t>
+          <t>Directors Guild of America</t>
         </is>
       </c>
       <c r="B116">
@@ -1522,7 +1522,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DLA Piper, LLP</t>
+          <t>District Department of Transportation</t>
         </is>
       </c>
       <c r="B117">
@@ -1532,7 +1532,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Dropbox</t>
+          <t>District of Columbia, Commission on the Arts and Humanities</t>
         </is>
       </c>
       <c r="B118">
@@ -1542,7 +1542,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Duke University</t>
+          <t>DKC Public Relations</t>
         </is>
       </c>
       <c r="B119">
@@ -1552,7 +1552,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Duke University, Bipartisan Policy Center</t>
+          <t>DLA Piper, LLP</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,17 +1562,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Earthjustice</t>
+          <t>Dropbox</t>
         </is>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Elevate, LLC</t>
+          <t>Duke University</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ellison Institute, University of Southern California</t>
+          <t>Duke University, Bipartisan Policy Center</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,7 +1592,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Empire State Development</t>
+          <t>Earthjustice</t>
         </is>
       </c>
       <c r="B124">
@@ -1602,7 +1602,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Energy Foundation</t>
+          <t>Elevate, LLC</t>
         </is>
       </c>
       <c r="B125">
@@ -1612,7 +1612,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Environmental Defense Fund</t>
+          <t>Ellison Institute, University of Southern California</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>Empire State Development</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Evergreen Action</t>
+          <t>Energy Foundation</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EVgo</t>
+          <t>Environmental Defense Fund</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,7 +1652,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="B130">
@@ -1662,17 +1662,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>Evergreen Action</t>
         </is>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fair Fight Action</t>
+          <t>EVgo</t>
         </is>
       </c>
       <c r="B132">
@@ -1682,7 +1682,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Families USA</t>
+          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
         </is>
       </c>
       <c r="B133">
@@ -1692,17 +1692,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Federal Trade Commission (Retired)</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Figma</t>
+          <t>Fair Fight Action</t>
         </is>
       </c>
       <c r="B135">
@@ -1712,7 +1712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FiscalNote</t>
+          <t>Families USA</t>
         </is>
       </c>
       <c r="B136">
@@ -1722,7 +1722,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Federal Trade Commission (Retired)</t>
         </is>
       </c>
       <c r="B137">
@@ -1732,7 +1732,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FoodCorps</t>
+          <t>Figma</t>
         </is>
       </c>
       <c r="B138">
@@ -1742,7 +1742,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Future Partners LLC</t>
+          <t>FiscalNote</t>
         </is>
       </c>
       <c r="B139">
@@ -1752,7 +1752,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Gamble Advisory Group</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="B140">
@@ -1762,7 +1762,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Gates Ventures</t>
+          <t>FoodCorps</t>
         </is>
       </c>
       <c r="B141">
@@ -1772,7 +1772,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Generate</t>
+          <t>Future Partners LLC</t>
         </is>
       </c>
       <c r="B142">
@@ -1782,17 +1782,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>Gamble Advisory Group</t>
         </is>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>George Washington University, The Elliott School of International Affairs</t>
+          <t>Gates Ventures</t>
         </is>
       </c>
       <c r="B144">
@@ -1802,27 +1802,27 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Generate</t>
         </is>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Georgetown University Law Center</t>
+          <t>George Washington University</t>
         </is>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Georgia Institute of Technology</t>
+          <t>George Washington University, The Elliott School of International Affairs</t>
         </is>
       </c>
       <c r="B147">
@@ -1832,17 +1832,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GiveDirectly</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Global Counsel, LLC</t>
+          <t>Georgetown University Law Center</t>
         </is>
       </c>
       <c r="B149">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Goldman Sachs &amp; Co.</t>
+          <t>Georgia Institute of Technology</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,7 +1862,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Google, LLC</t>
+          <t>GiveDirectly</t>
         </is>
       </c>
       <c r="B151">
@@ -1872,7 +1872,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Greater Washington Black Chamber of Commerce</t>
+          <t>Global Counsel, LLC</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,7 +1882,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Green Marble Group</t>
+          <t>Goldman Sachs &amp; Co.</t>
         </is>
       </c>
       <c r="B153">
@@ -1892,7 +1892,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Grist Magazine, Inc.</t>
+          <t>Google, LLC</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Guidehouse, Inc.</t>
+          <t>Greater Washington Black Chamber of Commerce</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Gulf of Maine Research Institute</t>
+          <t>Green Marble Group</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Harris, Wiltshire and Grannis, LLP</t>
+          <t>Grist Magazine, Inc.</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,7 +1932,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hartford Foundation for Public Giving</t>
+          <t>Guidehouse, Inc.</t>
         </is>
       </c>
       <c r="B158">
@@ -1942,7 +1942,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Harvard Environmental and Energy Law Program</t>
+          <t>Gulf of Maine Research Institute</t>
         </is>
       </c>
       <c r="B159">
@@ -1952,17 +1952,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>Harris, Wiltshire and Grannis, LLP</t>
         </is>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Harvard University</t>
+          <t>Hartford Foundation for Public Giving</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Healing Justice Project</t>
+          <t>Harvard Environmental and Energy Law Program</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,17 +1982,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Health Management Associates</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Helena Foundation</t>
+          <t>Harvard University</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>High Water Mark, LLC</t>
+          <t>Healing Justice Project</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Hills &amp; Company</t>
+          <t>Health Management Associates</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hogan Lovells, LLP</t>
+          <t>Helena Foundation</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,7 +2032,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hope Enterprise Corporation</t>
+          <t>High Water Mark, LLC</t>
         </is>
       </c>
       <c r="B168">
@@ -2042,7 +2042,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Housing Partnership Network</t>
+          <t>Hills &amp; Company</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Howard University</t>
+          <t>Hogan Lovells, LLP</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hudson-Webber Foundation</t>
+          <t>Hope Enterprise Corporation</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,7 +2072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Huntington Ingalls Industries</t>
+          <t>Housing Partnership Network</t>
         </is>
       </c>
       <c r="B172">
@@ -2082,7 +2082,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Hunton Andrews Kurth, LLP</t>
+          <t>Howard University</t>
         </is>
       </c>
       <c r="B173">
@@ -2092,7 +2092,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HWC, Inc.</t>
+          <t>Hudson-Webber Foundation</t>
         </is>
       </c>
       <c r="B174">
@@ -2102,7 +2102,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>I AM ALS</t>
+          <t>Huntington Ingalls Industries</t>
         </is>
       </c>
       <c r="B175">
@@ -2112,17 +2112,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IDA Science and Technology Policy Institute</t>
+          <t>Hunton Andrews Kurth, LLP</t>
         </is>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Imbue Group, Inc.</t>
+          <t>HWC, Inc.</t>
         </is>
       </c>
       <c r="B177">
@@ -2132,7 +2132,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Impact Master Holdings</t>
+          <t>I AM ALS</t>
         </is>
       </c>
       <c r="B178">
@@ -2142,17 +2142,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>In-Q-Tel</t>
+          <t>IDA Science and Technology Policy Institute</t>
         </is>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Indiana University Maurer School of Law</t>
+          <t>Imbue Group, Inc.</t>
         </is>
       </c>
       <c r="B180">
@@ -2162,7 +2162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Indianapolis Airport Authority</t>
+          <t>Impact Master Holdings</t>
         </is>
       </c>
       <c r="B181">
@@ -2172,7 +2172,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Innovative Emergency Management</t>
+          <t>In-Q-Tel</t>
         </is>
       </c>
       <c r="B182">
@@ -2182,7 +2182,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Institutes for Behavior Resources, Inc.</t>
+          <t>Indiana University Maurer School of Law</t>
         </is>
       </c>
       <c r="B183">
@@ -2192,7 +2192,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>International Association of Machinists and Aerospace Workers</t>
+          <t>Indianapolis Airport Authority</t>
         </is>
       </c>
       <c r="B184">
@@ -2202,7 +2202,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>International Brotherhood of Teamsters</t>
+          <t>Innovative Emergency Management</t>
         </is>
       </c>
       <c r="B185">
@@ -2212,7 +2212,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>International Capital Strategies, LLC</t>
+          <t>Institutes for Behavior Resources, Inc.</t>
         </is>
       </c>
       <c r="B186">
@@ -2222,7 +2222,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>International Energy Agency</t>
+          <t>International Association of Machinists and Aerospace Workers</t>
         </is>
       </c>
       <c r="B187">
@@ -2232,7 +2232,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>International Public Safety Data Institute</t>
+          <t>International Brotherhood of Teamsters</t>
         </is>
       </c>
       <c r="B188">
@@ -2242,7 +2242,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Jobs for the Future, Inc.</t>
+          <t>International Capital Strategies, LLC</t>
         </is>
       </c>
       <c r="B189">
@@ -2252,7 +2252,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>John Jay College of Criminal Justice</t>
+          <t>International Energy Agency</t>
         </is>
       </c>
       <c r="B190">
@@ -2262,7 +2262,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Johns Hopkins University</t>
+          <t>International Public Safety Data Institute</t>
         </is>
       </c>
       <c r="B191">
@@ -2272,7 +2272,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Johns Hopkins University, School of Advanced International Studies</t>
+          <t>Jobs for the Future, Inc.</t>
         </is>
       </c>
       <c r="B192">
@@ -2282,7 +2282,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Jones Day</t>
+          <t>John Jay College of Criminal Justice</t>
         </is>
       </c>
       <c r="B193">
@@ -2292,7 +2292,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co</t>
+          <t>Johns Hopkins University</t>
         </is>
       </c>
       <c r="B194">
@@ -2302,7 +2302,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Juggernaut, LLC</t>
+          <t>Johns Hopkins University, School of Advanced International Studies</t>
         </is>
       </c>
       <c r="B195">
@@ -2312,7 +2312,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Justice Catalyst Law, Inc.</t>
+          <t>Jones Day</t>
         </is>
       </c>
       <c r="B196">
@@ -2322,7 +2322,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KeyBank</t>
+          <t>JPMorgan Chase &amp; Co</t>
         </is>
       </c>
       <c r="B197">
@@ -2332,17 +2332,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins, LLP</t>
+          <t>Juggernaut, LLC</t>
         </is>
       </c>
       <c r="B198">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Laudes Foundation</t>
+          <t>Justice Catalyst Law, Inc.</t>
         </is>
       </c>
       <c r="B199">
@@ -2352,27 +2352,27 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Learning Policy Institute</t>
+          <t>KeyBank</t>
         </is>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LINK Houston</t>
+          <t>Latham &amp; Watkins, LLP</t>
         </is>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>LinkedIn Corporation</t>
+          <t>Laudes Foundation</t>
         </is>
       </c>
       <c r="B202">
@@ -2382,17 +2382,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Linklaters LLP</t>
+          <t>Learning Policy Institute</t>
         </is>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Los Angeles Community College District</t>
+          <t>LINK Houston</t>
         </is>
       </c>
       <c r="B204">
@@ -2402,7 +2402,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Los Angeles County Metropolitan Transportation Authority</t>
+          <t>LinkedIn Corporation</t>
         </is>
       </c>
       <c r="B205">
@@ -2412,7 +2412,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Los Angeles Homeless Services Authority</t>
+          <t>Linklaters LLP</t>
         </is>
       </c>
       <c r="B206">
@@ -2422,7 +2422,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Lucky Dog Animal Rescue</t>
+          <t>Los Angeles Community College District</t>
         </is>
       </c>
       <c r="B207">
@@ -2432,7 +2432,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Lyft, Inc.</t>
+          <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
       </c>
       <c r="B208">
@@ -2442,17 +2442,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Manatt, Phelps and Phillips, LLP</t>
+          <t>Los Angeles Homeless Services Authority</t>
         </is>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>March of Dimes</t>
+          <t>Lucky Dog Animal Rescue</t>
         </is>
       </c>
       <c r="B210">
@@ -2462,7 +2462,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Marguerite Casey Foundation</t>
+          <t>Lyft, Inc.</t>
         </is>
       </c>
       <c r="B211">
@@ -2472,67 +2472,67 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Markle Foundation</t>
+          <t>Manatt, Phelps and Phillips, LLP</t>
         </is>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Massachusetts Bay Transportation Authority</t>
+          <t>March of Dimes</t>
         </is>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Marguerite Casey Foundation</t>
         </is>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>MassMutual</t>
+          <t>Markle Foundation</t>
         </is>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Mayer Brown, LLP</t>
+          <t>Massachusetts Bay Transportation Authority</t>
         </is>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>McChrystal Group</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MediaMath</t>
+          <t>MassMutual</t>
         </is>
       </c>
       <c r="B218">
@@ -2542,7 +2542,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Medsphere Systems Corporation</t>
+          <t>Mayer Brown, LLP</t>
         </is>
       </c>
       <c r="B219">
@@ -2552,7 +2552,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MedStar Health</t>
+          <t>McChrystal Group</t>
         </is>
       </c>
       <c r="B220">
@@ -2562,7 +2562,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Meow Wolf, Inc.</t>
+          <t>MediaMath</t>
         </is>
       </c>
       <c r="B221">
@@ -2572,7 +2572,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>Medsphere Systems Corporation</t>
         </is>
       </c>
       <c r="B222">
@@ -2582,7 +2582,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Metropolitan Transportation Commission</t>
+          <t>MedStar Health</t>
         </is>
       </c>
       <c r="B223">
@@ -2592,7 +2592,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Michigan State University</t>
+          <t>Meow Wolf, Inc.</t>
         </is>
       </c>
       <c r="B224">
@@ -2602,7 +2602,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Middle East Broadcasting Networks (Retired)</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="B225">
@@ -2612,7 +2612,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Migration Policy Institute</t>
+          <t>Metropolitan Transportation Commission</t>
         </is>
       </c>
       <c r="B226">
@@ -2622,7 +2622,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Moneta Group</t>
+          <t>Michigan State University</t>
         </is>
       </c>
       <c r="B227">
@@ -2632,7 +2632,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Morgan, Lewis &amp; Bockius, LLP</t>
+          <t>Middle East Broadcasting Networks (Retired)</t>
         </is>
       </c>
       <c r="B228">
@@ -2642,7 +2642,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Morrison &amp; Foerster LLC</t>
+          <t>Migration Policy Institute</t>
         </is>
       </c>
       <c r="B229">
@@ -2652,7 +2652,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mortgage Bankers Association</t>
+          <t>Moneta Group</t>
         </is>
       </c>
       <c r="B230">
@@ -2662,7 +2662,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>National Association for Latino Community Asset Builders</t>
+          <t>Morgan, Lewis &amp; Bockius, LLP</t>
         </is>
       </c>
       <c r="B231">
@@ -2672,7 +2672,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>National Association of Affordable Housing Lenders</t>
+          <t>Morrison &amp; Foerster LLC</t>
         </is>
       </c>
       <c r="B232">
@@ -2682,7 +2682,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>National Association of Letter Carriers</t>
+          <t>Mortgage Bankers Association</t>
         </is>
       </c>
       <c r="B233">
@@ -2692,7 +2692,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>National Audubon Society</t>
+          <t>National Association for Latino Community Asset Builders</t>
         </is>
       </c>
       <c r="B234">
@@ -2702,7 +2702,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>National Community Stabilization Trust</t>
+          <t>National Association of Affordable Housing Lenders</t>
         </is>
       </c>
       <c r="B235">
@@ -2712,7 +2712,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>National Conference on Citizenship</t>
+          <t>National Association of Letter Carriers</t>
         </is>
       </c>
       <c r="B236">
@@ -2722,7 +2722,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>National Credit Union Administration (Retired)</t>
+          <t>National Audubon Society</t>
         </is>
       </c>
       <c r="B237">
@@ -2732,7 +2732,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>National Day Laborer Organizing Network (NDLON)</t>
+          <t>National Community Stabilization Trust</t>
         </is>
       </c>
       <c r="B238">
@@ -2742,7 +2742,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>National Democratic Institute</t>
+          <t>National Conference on Citizenship</t>
         </is>
       </c>
       <c r="B239">
@@ -2752,27 +2752,27 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>National Education Association</t>
+          <t>National Credit Union Administration (Retired)</t>
         </is>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>National Employment Law Project</t>
+          <t>National Day Laborer Organizing Network (NDLON)</t>
         </is>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>National Energy Management Institute Committee</t>
+          <t>National Democratic Institute</t>
         </is>
       </c>
       <c r="B242">
@@ -2782,27 +2782,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>National Marine Sanctuary Foundation</t>
+          <t>National Education Association</t>
         </is>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>National Oceanic and Atmospheric Administration (Retired)</t>
+          <t>National Employment Law Project</t>
         </is>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>National Resources Defense Council, Inc.</t>
+          <t>National Energy Management Institute Committee</t>
         </is>
       </c>
       <c r="B245">
@@ -2812,7 +2812,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>National Security Action</t>
+          <t>National Marine Sanctuary Foundation</t>
         </is>
       </c>
       <c r="B246">
@@ -2822,7 +2822,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Native American Agriculture Fund</t>
+          <t>National Oceanic and Atmospheric Administration (Retired)</t>
         </is>
       </c>
       <c r="B247">
@@ -2832,17 +2832,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>New America</t>
+          <t>National Resources Defense Council, Inc.</t>
         </is>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>New Mexico State University</t>
+          <t>National Security Action</t>
         </is>
       </c>
       <c r="B249">
@@ -2852,7 +2852,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>New York City, Department of City Planning</t>
+          <t>Native American Agriculture Fund</t>
         </is>
       </c>
       <c r="B250">
@@ -2862,27 +2862,27 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>New York City, Department of Transportation</t>
+          <t>New America</t>
         </is>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>New Mexico State University</t>
         </is>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>New York University, Furman Center</t>
+          <t>New York City, Department of City Planning</t>
         </is>
       </c>
       <c r="B253">
@@ -2892,7 +2892,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>New York University, School of Law</t>
+          <t>New York City, Department of Transportation</t>
         </is>
       </c>
       <c r="B254">
@@ -2902,17 +2902,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Brennan Center for Justice</t>
+          <t>New York University</t>
         </is>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
+          <t>New York University, Furman Center</t>
         </is>
       </c>
       <c r="B256">
@@ -2922,7 +2922,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
+          <t>New York University, School of Law</t>
         </is>
       </c>
       <c r="B257">
@@ -2932,7 +2932,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Next Street</t>
+          <t>New York University, School of Law, Brennan Center for Justice</t>
         </is>
       </c>
       <c r="B258">
@@ -2942,7 +2942,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Northeastern University</t>
+          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
         </is>
       </c>
       <c r="B259">
@@ -2952,27 +2952,27 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Nuclear Threat Initiative</t>
+          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
         </is>
       </c>
       <c r="B260">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>NYC Health + Hospitals</t>
+          <t>Next Street</t>
         </is>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Oatly</t>
+          <t>Northeastern University</t>
         </is>
       </c>
       <c r="B262">
@@ -2982,27 +2982,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ocean Wonks</t>
+          <t>Nuclear Threat Initiative</t>
         </is>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Office of Senator Elizabeth Warren</t>
+          <t>NYC Health + Hospitals</t>
         </is>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Office of the Attorney General for the District of Columbia</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="B265">
@@ -3012,7 +3012,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Office of the Speaker, Maine State Legislature</t>
+          <t>Ocean Wonks</t>
         </is>
       </c>
       <c r="B266">
@@ -3022,17 +3022,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>One Concern, Inc.</t>
+          <t>Office of Senator Elizabeth Warren</t>
         </is>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Open Education Global</t>
+          <t>Office of the Attorney General for the District of Columbia</t>
         </is>
       </c>
       <c r="B268">
@@ -3042,17 +3042,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Open Society Foundations</t>
+          <t>Office of the Speaker, Maine State Legislature</t>
         </is>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
+          <t>One Concern, Inc.</t>
         </is>
       </c>
       <c r="B270">
@@ -3062,27 +3062,27 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Open Education Global</t>
         </is>
       </c>
       <c r="B271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>OtherSide Consulting, LLC</t>
+          <t>Open Society Foundations</t>
         </is>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Oversight Board Administration</t>
+          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
         </is>
       </c>
       <c r="B273">
@@ -3092,17 +3092,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>PA Democratic Party</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Partnership for Public Service</t>
+          <t>OtherSide Consulting, LLC</t>
         </is>
       </c>
       <c r="B275">
@@ -3112,7 +3112,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PATH</t>
+          <t>Oversight Board Administration</t>
         </is>
       </c>
       <c r="B276">
@@ -3122,7 +3122,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Paul Hastings, LLP</t>
+          <t>PA Democratic Party</t>
         </is>
       </c>
       <c r="B277">
@@ -3132,7 +3132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>PEN America</t>
+          <t>Partnership for Public Service</t>
         </is>
       </c>
       <c r="B278">
@@ -3142,7 +3142,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PenFed Foundation</t>
+          <t>PATH</t>
         </is>
       </c>
       <c r="B279">
@@ -3152,7 +3152,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Paul Hastings, LLP</t>
         </is>
       </c>
       <c r="B280">
@@ -3162,7 +3162,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Pew Charitable Trusts</t>
+          <t>PEN America</t>
         </is>
       </c>
       <c r="B281">
@@ -3172,7 +3172,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Philanthropy Northwest</t>
+          <t>PenFed Foundation</t>
         </is>
       </c>
       <c r="B282">
@@ -3182,7 +3182,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="B283">
@@ -3192,7 +3192,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Prudential PLC</t>
+          <t>Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B284">
@@ -3202,7 +3202,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Public Knowledge</t>
+          <t>Philanthropy Northwest</t>
         </is>
       </c>
       <c r="B285">
@@ -3212,7 +3212,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Public Private Strategies</t>
+          <t>Princeton University</t>
         </is>
       </c>
       <c r="B286">
@@ -3222,27 +3222,27 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>RAND Corporation</t>
+          <t>Prudential PLC</t>
         </is>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Rebellion Defense</t>
+          <t>Public Knowledge</t>
         </is>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Red River Associates</t>
+          <t>Public Private Strategies</t>
         </is>
       </c>
       <c r="B289">
@@ -3252,27 +3252,27 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Refugees International</t>
+          <t>RAND Corporation</t>
         </is>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="B291">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
+          <t>Red River Associates</t>
         </is>
       </c>
       <c r="B292">
@@ -3282,7 +3282,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Rocky Mountain Institute</t>
+          <t>REFORM Alliance</t>
         </is>
       </c>
       <c r="B293">
@@ -3292,27 +3292,27 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Roosevelt Institute</t>
+          <t>Refugees International</t>
         </is>
       </c>
       <c r="B294">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Roti Modern Mediterranean</t>
+          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
         </is>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Salesforce.com, Inc.</t>
+          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
         </is>
       </c>
       <c r="B296">
@@ -3322,7 +3322,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Santa Clara University</t>
+          <t>Rocky Mountain Institute</t>
         </is>
       </c>
       <c r="B297">
@@ -3332,27 +3332,27 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Schmidt Futures</t>
+          <t>Roosevelt Institute</t>
         </is>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Roti Modern Mediterranean</t>
         </is>
       </c>
       <c r="B299">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Senshi Ame Advisors, LLC</t>
+          <t>Salesforce.com, Inc.</t>
         </is>
       </c>
       <c r="B300">
@@ -3362,7 +3362,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Sequoia Capital Operations, LLC</t>
+          <t>Santa Clara University</t>
         </is>
       </c>
       <c r="B301">
@@ -3372,27 +3372,27 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Service Employees International Union</t>
+          <t>Schmidt Futures</t>
         </is>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sherman Dunn, P.C.</t>
+          <t>Senshi Ame Advisors, LLC</t>
         </is>
       </c>
       <c r="B304">
@@ -3402,7 +3402,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Sidewalk Labs</t>
+          <t>Sequoia Capital Operations, LLC</t>
         </is>
       </c>
       <c r="B305">
@@ -3412,17 +3412,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Sidley Austin, LLP</t>
+          <t>Service Employees International Union</t>
         </is>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SimpliFed</t>
+          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
         </is>
       </c>
       <c r="B307">
@@ -3432,7 +3432,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>Sherman Dunn, P.C.</t>
         </is>
       </c>
       <c r="B308">
@@ -3442,7 +3442,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Sophant Consulting</t>
+          <t>Sidewalk Labs</t>
         </is>
       </c>
       <c r="B309">
@@ -3452,7 +3452,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>Sidley Austin, LLP</t>
         </is>
       </c>
       <c r="B310">
@@ -3462,17 +3462,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>SimpliFed</t>
         </is>
       </c>
       <c r="B311">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>State of California</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="B312">
@@ -3482,7 +3482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>State of California, Department of Industrial Relations</t>
+          <t>Sophant Consulting</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,7 +3492,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="B314">
@@ -3502,17 +3502,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>State of California, Office of Digital Innovation</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>State of Illinois</t>
+          <t>State of California</t>
         </is>
       </c>
       <c r="B316">
@@ -3522,17 +3522,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>State of Michigan, Department of Health &amp; Human Services</t>
+          <t>State of California, Department of Industrial Relations</t>
         </is>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="B318">
@@ -3542,7 +3542,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
+          <t>State of California, Office of Digital Innovation</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,27 +3552,27 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>State of Illinois</t>
         </is>
       </c>
       <c r="B320">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>State of New York, Department of Financial Services</t>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
         </is>
       </c>
       <c r="B321">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="B322">
@@ -3582,7 +3582,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>State of New York, Homes and Community Renewal</t>
+          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,17 +3592,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>State of Oregon Department of Housing and Community Services</t>
+          <t>State of New York, Department of Financial Services</t>
         </is>
       </c>
       <c r="B325">
@@ -3612,7 +3612,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>State of New York, Homes and Community Renewal</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>State of Oregon Department of Housing and Community Services</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,7 +3652,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Teach Plus, Inc</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B330">
@@ -3662,7 +3662,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="B331">
@@ -3672,7 +3672,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Thaddeus Stevens College of Technology</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,17 +3682,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="B333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>The Aspen Institute</t>
+          <t>Teach Plus, Inc</t>
         </is>
       </c>
       <c r="B334">
@@ -3702,7 +3702,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>The Better Angels Society</t>
+          <t>Thaddeus Stevens College of Technology</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,17 +3722,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>The Center for Family Safety and Healing</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="B337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The Century Foundation</t>
+          <t>The Aspen Institute</t>
         </is>
       </c>
       <c r="B338">
@@ -3742,7 +3742,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>The Clark Group, LLC</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,17 +3752,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>The Cranemere Group</t>
+          <t>The Better Angels Society</t>
         </is>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>The Education Trust</t>
+          <t>The Center for Family Safety and Healing</t>
         </is>
       </c>
       <c r="B341">
@@ -3772,7 +3772,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>The Estee Lauder Companies</t>
+          <t>The Century Foundation</t>
         </is>
       </c>
       <c r="B342">
@@ -3782,7 +3782,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>The Clark Group, LLC</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,17 +3792,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>The German Marshall Fund of the United States</t>
+          <t>The Cranemere Group</t>
         </is>
       </c>
       <c r="B344">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>The Education Trust</t>
         </is>
       </c>
       <c r="B345">
@@ -3812,7 +3812,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>The Institute for College Access &amp; Success</t>
+          <t>The Estee Lauder Companies</t>
         </is>
       </c>
       <c r="B346">
@@ -3822,7 +3822,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="B347">
@@ -3832,27 +3832,27 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>The German Marshall Fund of the United States</t>
         </is>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>The Institute for College Access &amp; Success</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,17 +3882,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The National Education Association</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>The Pew Charitable Trusts</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="B354">
@@ -3902,7 +3902,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>The Port of Seattle</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,7 +3912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The Raben Group, LLC</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="B356">
@@ -3922,7 +3922,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The ROC Group</t>
+          <t>The National Education Association</t>
         </is>
       </c>
       <c r="B357">
@@ -3932,17 +3932,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>The Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B358">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>The Port of Seattle</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>The Raben Group, LLC</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The Solidarity Center</t>
+          <t>The ROC Group</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,17 +3972,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The Stennis Center for Public Service</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="B363">
@@ -3992,7 +3992,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>The Solidarity Center</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>The Stennis Center for Public Service</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>The Washington Institute for Near East Policy</t>
+          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Third Way</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Toffler Associates, Inc.</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,7 +4062,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Trinity University</t>
+          <t>The Washington Institute for Near East Policy</t>
         </is>
       </c>
       <c r="B371">
@@ -4072,7 +4072,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
+          <t>Third Way</t>
         </is>
       </c>
       <c r="B372">
@@ -4082,7 +4082,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>Toffler Associates, Inc.</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,7 +4102,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Trust for America’s Health</t>
+          <t>Trinity University</t>
         </is>
       </c>
       <c r="B375">
@@ -4112,7 +4112,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,17 +4122,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,7 +4142,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>Trust for America’s Health</t>
         </is>
       </c>
       <c r="B379">
@@ -4152,7 +4152,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,27 +4162,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>UnidosUS</t>
+          <t>U.S. Government Accountability Office</t>
         </is>
       </c>
       <c r="B381">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>United Association</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="B383">
@@ -4192,17 +4192,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>U.S. Senate Foreign Relations Committee</t>
         </is>
       </c>
       <c r="B384">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,17 +4222,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>UnidosUS</t>
         </is>
       </c>
       <c r="B387">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United Association</t>
         </is>
       </c>
       <c r="B388">
@@ -4242,7 +4242,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,17 +4252,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Bernie Sanders</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="B391">
@@ -4272,7 +4272,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="B392">
@@ -4282,7 +4282,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,17 +4292,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>University of California, Berkeley</t>
+          <t>United States Postal Service</t>
         </is>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="B395">
@@ -4312,27 +4312,27 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>United States Senate, Office of Senator Bernie Sanders</t>
         </is>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>University of California, San Francisco</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="B397">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>University of Chicago, Harris School of Public Policy Studies</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,17 +4352,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>University of Delaware</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>University of Georgia</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="B401">
@@ -4372,27 +4372,27 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="B402">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>University of Maryland, College Park</t>
+          <t>University of California, San Francisco</t>
         </is>
       </c>
       <c r="B403">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>University of Chicago, Harris School of Public Policy Studies</t>
         </is>
       </c>
       <c r="B404">
@@ -4402,17 +4402,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="B405">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>University of Michigan Law School</t>
+          <t>University of Delaware</t>
         </is>
       </c>
       <c r="B406">
@@ -4422,7 +4422,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of Georgia</t>
         </is>
       </c>
       <c r="B407">
@@ -4432,7 +4432,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="B408">
@@ -4442,17 +4442,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>University of Maryland, College Park</t>
         </is>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>University of Pittsburgh</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="B410">
@@ -4462,17 +4462,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>University of Texas at Austin</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>University of Texas at Austin, School of Law</t>
+          <t>University of Michigan Law School</t>
         </is>
       </c>
       <c r="B412">
@@ -4482,7 +4482,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Urban Alliance</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="B413">
@@ -4492,37 +4492,37 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="B414">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="B415">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>University of Pittsburgh</t>
         </is>
       </c>
       <c r="B416">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>University of Texas at Austin</t>
         </is>
       </c>
       <c r="B417">
@@ -4532,7 +4532,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>University of Texas at Austin, School of Law</t>
         </is>
       </c>
       <c r="B418">
@@ -4542,27 +4542,27 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>Urban Alliance</t>
         </is>
       </c>
       <c r="B419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="B420">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="B421">
@@ -4572,27 +4572,27 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="B423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="B424">
@@ -4602,27 +4602,27 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Wiley Rein, LLP</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>WilmerHale, LLC</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Women of Color Advancing Peace and Security</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="B427">
@@ -4632,7 +4632,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="B428">
@@ -4642,17 +4642,17 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>White &amp; Case, LLP</t>
         </is>
       </c>
       <c r="B430">
@@ -4662,7 +4662,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Yale Law School</t>
+          <t>Wiley Rein, LLP</t>
         </is>
       </c>
       <c r="B431">
@@ -4672,10 +4672,70 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
+          <t>WilmerHale, LLC</t>
+        </is>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Women of Color Advancing Peace and Security</t>
+        </is>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>WorkMerk, LLC</t>
+        </is>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>World Resources Institute</t>
+        </is>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Wyss Foundation</t>
+        </is>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Yale Law School</t>
+        </is>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
           <t>Yale University</t>
         </is>
       </c>
-      <c r="B432">
+      <c r="B438">
         <v>3</v>
       </c>
     </row>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,27 +492,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alloy</t>
+          <t>Alliance for Peacebuilding</t>
         </is>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Amalgamated Transit Union</t>
+          <t>Alloy</t>
         </is>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Amalgamated Transit Union International</t>
+          <t>Amalgamated Transit Union</t>
         </is>
       </c>
       <c r="B16">
@@ -522,7 +522,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Amazon Web Services</t>
+          <t>Amalgamated Transit Union International</t>
         </is>
       </c>
       <c r="B17">
@@ -532,7 +532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Amazon.com, Inc.</t>
+          <t>Amazon Web Services</t>
         </is>
       </c>
       <c r="B18">
@@ -542,7 +542,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>America’s Voice</t>
+          <t>Amazon.com, Inc.</t>
         </is>
       </c>
       <c r="B19">
@@ -552,37 +552,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union</t>
+          <t>America’s Voice</t>
         </is>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union of Michigan</t>
+          <t>American Civil Liberties Union</t>
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>American Economic Liberties Project</t>
+          <t>American Civil Liberties Union of Michigan</t>
         </is>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>American Federation of Government Employees, AFL-CIO</t>
+          <t>American Economic Liberties Project</t>
         </is>
       </c>
       <c r="B23">
@@ -592,57 +592,57 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>American Federation of State, County and Municipal Employees</t>
+          <t>American Federation of Government Employees, AFL-CIO</t>
         </is>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>American Federation of Teachers</t>
+          <t>American Federation of State, County and Municipal Employees</t>
         </is>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>American National Standards Institute</t>
+          <t>American Federation of Teachers</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>American University, Washington College of Law</t>
+          <t>American National Standards Institute</t>
         </is>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Americans for the Arts</t>
+          <t>American University, Washington College of Law</t>
         </is>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AMITA Health</t>
+          <t>Americans for the Arts</t>
         </is>
       </c>
       <c r="B29">
@@ -652,7 +652,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ankura Consulting</t>
+          <t>AMITA Health</t>
         </is>
       </c>
       <c r="B30">
@@ -662,7 +662,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argonne National Laboratory</t>
+          <t>Ankura Consulting</t>
         </is>
       </c>
       <c r="B31">
@@ -672,7 +672,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Arizona State University</t>
+          <t>Argonne National Laboratory</t>
         </is>
       </c>
       <c r="B32">
@@ -682,7 +682,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
+          <t>Arizona State University</t>
         </is>
       </c>
       <c r="B33">
@@ -692,7 +692,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Arnold Ventures, LLC</t>
+          <t>Arnold &amp; Porter Kaye Scholer, LLP</t>
         </is>
       </c>
       <c r="B34">
@@ -702,27 +702,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ascension</t>
+          <t>Arnold Ventures, LLC</t>
         </is>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Association of American Medical Colleges</t>
+          <t>Ascension</t>
         </is>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Association of Science and Technology Centers</t>
+          <t>Association of American Medical Colleges</t>
         </is>
       </c>
       <c r="B37">
@@ -732,7 +732,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Atlas Research, LLC</t>
+          <t>Association of Science and Technology Centers</t>
         </is>
       </c>
       <c r="B38">
@@ -742,7 +742,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Baltimore Regional Housing Partnership</t>
+          <t>Atlas Research, LLC</t>
         </is>
       </c>
       <c r="B39">
@@ -752,7 +752,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bandera Electric Cooperative, Inc.</t>
+          <t>Baltimore Regional Housing Partnership</t>
         </is>
       </c>
       <c r="B40">
@@ -762,7 +762,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Barker Pitelka PLLC</t>
+          <t>Bandera Electric Cooperative, Inc.</t>
         </is>
       </c>
       <c r="B41">
@@ -772,7 +772,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Better Markets, Inc.</t>
+          <t>Barker Pitelka PLLC</t>
         </is>
       </c>
       <c r="B42">
@@ -782,37 +782,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BFPCC, Inc.</t>
+          <t>Better Markets, Inc.</t>
         </is>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Biden for President</t>
+          <t>BFPCC, Inc.</t>
         </is>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bill &amp; Melinda Gates Foundation</t>
+          <t>Biden for President</t>
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bipartisan Commission on Biodefense</t>
+          <t>Bill &amp; Melinda Gates Foundation</t>
         </is>
       </c>
       <c r="B46">
@@ -822,7 +822,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Birmingham Strong</t>
+          <t>Bipartisan Commission on Biodefense</t>
         </is>
       </c>
       <c r="B47">
@@ -832,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bloomberg Philanthropies</t>
+          <t>Birmingham Strong</t>
         </is>
       </c>
       <c r="B48">
@@ -842,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Blue Crab Strategies</t>
+          <t>Bloomberg Philanthropies</t>
         </is>
       </c>
       <c r="B49">
@@ -852,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Blue Meridian Partners</t>
+          <t>Blue Crab Strategies</t>
         </is>
       </c>
       <c r="B50">
@@ -862,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Boies Schiller Flexner, LLP</t>
+          <t>Blue Meridian Partners</t>
         </is>
       </c>
       <c r="B51">
@@ -872,7 +872,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Booz Allen Hamilton</t>
+          <t>Boies Schiller Flexner, LLP</t>
         </is>
       </c>
       <c r="B52">
@@ -882,27 +882,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Boston Consulting Group</t>
+          <t>Booz Allen Hamilton</t>
         </is>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bread for the World</t>
+          <t>Boston Consulting Group</t>
         </is>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brighthive</t>
+          <t>Bread for the World</t>
         </is>
       </c>
       <c r="B55">
@@ -912,7 +912,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Brightside Benefit, Inc.</t>
+          <t>Brighthive</t>
         </is>
       </c>
       <c r="B56">
@@ -922,7 +922,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bronx District Attorney’s Office</t>
+          <t>Brightside Benefit, Inc.</t>
         </is>
       </c>
       <c r="B57">
@@ -932,21 +932,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brookings Institution</t>
+          <t>Bronx District Attorney’s Office</t>
         </is>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brown, Goldstein &amp; Levy, LLP</t>
+          <t>Brookings Institution</t>
         </is>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -3482,7 +3482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Sophant Consulting</t>
+          <t>Smartjob LLC</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,7 +3492,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>Sophant Consulting</t>
         </is>
       </c>
       <c r="B314">
@@ -3502,27 +3502,27 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="B315">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>State of California</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>State of California, Department of Industrial Relations</t>
+          <t>State of California</t>
         </is>
       </c>
       <c r="B317">
@@ -3532,7 +3532,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>State of California, Department of Industrial Relations</t>
         </is>
       </c>
       <c r="B318">
@@ -3542,7 +3542,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>State of California, Office of Digital Innovation</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,7 +3552,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>State of Illinois</t>
+          <t>State of California, Office of Digital Innovation</t>
         </is>
       </c>
       <c r="B320">
@@ -3562,27 +3562,27 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>State of Michigan, Department of Health &amp; Human Services</t>
+          <t>State of Illinois</t>
         </is>
       </c>
       <c r="B321">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
         </is>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,27 +3592,27 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
         </is>
       </c>
       <c r="B324">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>State of New York, Department of Financial Services</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>State of New York, Department of Financial Services</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>State of New York, Homes and Community Renewal</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>State of New York, Homes and Community Renewal</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>State of Oregon Department of Housing and Community Services</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,7 +3652,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>State of Oregon Department of Housing and Community Services</t>
         </is>
       </c>
       <c r="B330">
@@ -3662,7 +3662,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B331">
@@ -3672,7 +3672,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,7 +3682,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="B333">
@@ -3692,7 +3692,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Teach Plus, Inc</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="B334">
@@ -3702,7 +3702,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>Teach Plus, Inc</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Thaddeus Stevens College of Technology</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,27 +3722,27 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
+          <t>Thaddeus Stevens College of Technology</t>
         </is>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The Aspen Institute</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="B338">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>The Aspen Institute</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,7 +3752,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>The Better Angels Society</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="B340">
@@ -3762,7 +3762,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>The Center for Family Safety and Healing</t>
+          <t>The Better Angels Society</t>
         </is>
       </c>
       <c r="B341">
@@ -3772,7 +3772,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>The Century Foundation</t>
+          <t>The Center for Family Safety and Healing</t>
         </is>
       </c>
       <c r="B342">
@@ -3782,7 +3782,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>The Clark Group, LLC</t>
+          <t>The Century Foundation</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,27 +3792,27 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>The Cranemere Group</t>
+          <t>The Clark Group, LLC</t>
         </is>
       </c>
       <c r="B344">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>The Education Trust</t>
+          <t>The Cranemere Group</t>
         </is>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>The Estee Lauder Companies</t>
+          <t>The Education Trust</t>
         </is>
       </c>
       <c r="B346">
@@ -3822,7 +3822,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>The Estee Lauder Companies</t>
         </is>
       </c>
       <c r="B347">
@@ -3832,27 +3832,27 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The German Marshall Fund of the United States</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="B348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>The German Marshall Fund of the United States</t>
         </is>
       </c>
       <c r="B349">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The Institute for College Access &amp; Success</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
+          <t>The Institute for College Access &amp; Success</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,27 +3882,27 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="B353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,7 +3912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="B356">
@@ -3922,7 +3922,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The National Education Association</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="B357">
@@ -3932,7 +3932,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The Pew Charitable Trusts</t>
+          <t>The National Education Association</t>
         </is>
       </c>
       <c r="B358">
@@ -3942,7 +3942,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>The Port of Seattle</t>
+          <t>The Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>The Raben Group, LLC</t>
+          <t>The Port of Seattle</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The ROC Group</t>
+          <t>The Raben Group, LLC</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,27 +3972,27 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>The ROC Group</t>
         </is>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>The Solidarity Center</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>The Stennis Center for Public Service</t>
+          <t>The Solidarity Center</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
+          <t>The Stennis Center for Public Service</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,7 +4062,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>The Washington Institute for Near East Policy</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B371">
@@ -4072,7 +4072,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Third Way</t>
+          <t>The Washington Institute for Near East Policy</t>
         </is>
       </c>
       <c r="B372">
@@ -4082,7 +4082,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Toffler Associates, Inc.</t>
+          <t>Third Way</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>Toffler Associates, Inc.</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,7 +4102,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Trinity University</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="B375">
@@ -4112,7 +4112,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
+          <t>Trinity University</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,7 +4122,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
         </is>
       </c>
       <c r="B377">
@@ -4132,7 +4132,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,7 +4142,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Trust for America’s Health</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="B379">
@@ -4152,7 +4152,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Trust for America’s Health</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,7 +4162,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>U.S. Government Accountability Office</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="B381">
@@ -4172,27 +4172,27 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>U.S. Government Accountability Office</t>
         </is>
       </c>
       <c r="B382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>U.S. Senate Foreign Relations Committee</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="B384">
@@ -4202,7 +4202,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>U.S. Senate Foreign Relations Committee</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,27 +4222,27 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>UnidosUS</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="B387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>United Association</t>
+          <t>UnidosUS</t>
         </is>
       </c>
       <c r="B388">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>United Association</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,17 +4252,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="B390">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>United Nations Development Program</t>
         </is>
       </c>
       <c r="B391">
@@ -4272,17 +4272,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,7 +4292,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="B394">
@@ -4302,7 +4302,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="B395">
@@ -4312,7 +4312,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Bernie Sanders</t>
+          <t>United States Postal Service</t>
         </is>
       </c>
       <c r="B396">
@@ -4322,7 +4322,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>United States Senate, Office of Senator Bernie Sanders</t>
         </is>
       </c>
       <c r="B397">
@@ -4332,7 +4332,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,17 +4352,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>University of California, Berkeley</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="B401">
@@ -4372,47 +4372,47 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="B402">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>University of California, San Francisco</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>University of Chicago, Harris School of Public Policy Studies</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="B404">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>University of California, San Francisco</t>
         </is>
       </c>
       <c r="B405">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>University of Delaware</t>
+          <t>University of Chicago, Harris School of Public Policy Studies</t>
         </is>
       </c>
       <c r="B406">
@@ -4422,7 +4422,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>University of Georgia</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="B407">
@@ -4432,7 +4432,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
+          <t>University of Delaware</t>
         </is>
       </c>
       <c r="B408">
@@ -4442,7 +4442,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>University of Maryland, College Park</t>
+          <t>University of Georgia</t>
         </is>
       </c>
       <c r="B409">
@@ -4452,7 +4452,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="B410">
@@ -4462,17 +4462,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of Maryland, College Park</t>
         </is>
       </c>
       <c r="B411">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>University of Michigan Law School</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="B412">
@@ -4482,17 +4482,17 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>University of Michigan Law School</t>
         </is>
       </c>
       <c r="B414">
@@ -4502,17 +4502,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="B415">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>University of Pittsburgh</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="B416">
@@ -4522,17 +4522,17 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>University of Texas at Austin</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="B417">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>University of Texas at Austin, School of Law</t>
+          <t>University of Pittsburgh</t>
         </is>
       </c>
       <c r="B418">
@@ -4542,7 +4542,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Urban Alliance</t>
+          <t>University of Texas at Austin</t>
         </is>
       </c>
       <c r="B419">
@@ -4552,17 +4552,17 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>University of Texas at Austin, School of Law</t>
         </is>
       </c>
       <c r="B420">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>Urban Alliance</t>
         </is>
       </c>
       <c r="B421">
@@ -4572,17 +4572,17 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="B422">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="B423">
@@ -4592,67 +4592,67 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="B424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="B425">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="B426">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="B427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="B428">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="B429">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="B430">
@@ -4662,17 +4662,17 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Wiley Rein, LLP</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>WilmerHale, LLC</t>
+          <t>White &amp; Case, LLP</t>
         </is>
       </c>
       <c r="B432">
@@ -4682,7 +4682,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Women of Color Advancing Peace and Security</t>
+          <t>Wiley Rein, LLP</t>
         </is>
       </c>
       <c r="B433">
@@ -4692,7 +4692,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>WilmerHale, LLC</t>
         </is>
       </c>
       <c r="B434">
@@ -4702,7 +4702,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>Women of Color Advancing Peace and Security</t>
         </is>
       </c>
       <c r="B435">
@@ -4712,7 +4712,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>WorkMerk, LLC</t>
         </is>
       </c>
       <c r="B436">
@@ -4722,7 +4722,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Yale Law School</t>
+          <t>World Resources Institute</t>
         </is>
       </c>
       <c r="B437">
@@ -4732,10 +4732,30 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
+          <t>Wyss Foundation</t>
+        </is>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Yale Law School</t>
+        </is>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
           <t>Yale University</t>
         </is>
       </c>
-      <c r="B438">
+      <c r="B440">
         <v>3</v>
       </c>
     </row>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>California Community Foundation</t>
+          <t>Calbright College</t>
         </is>
       </c>
       <c r="B62">
@@ -982,7 +982,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>California Department of Financial Protection &amp; Innovation</t>
+          <t>California Community Foundation</t>
         </is>
       </c>
       <c r="B63">
@@ -992,7 +992,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>California Department of Transportation</t>
+          <t>California Department of Financial Protection &amp; Innovation</t>
         </is>
       </c>
       <c r="B64">
@@ -1002,7 +1002,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>California Energy Commission</t>
+          <t>California Department of Transportation</t>
         </is>
       </c>
       <c r="B65">
@@ -1012,7 +1012,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Capital One Financial Corporation</t>
+          <t>California Energy Commission</t>
         </is>
       </c>
       <c r="B66">
@@ -1022,7 +1022,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Carbon180</t>
+          <t>Capital One Financial Corporation</t>
         </is>
       </c>
       <c r="B67">
@@ -1032,27 +1032,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CARE</t>
+          <t>Carbon180</t>
         </is>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CareJourney</t>
+          <t>CARE</t>
         </is>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
+          <t>CareJourney</t>
         </is>
       </c>
       <c r="B70">
@@ -1062,37 +1062,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Center for a New American Security</t>
+          <t>Carnegie Mellon University, The Heinz College of Information Systems and Public Policy</t>
         </is>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Center for American Progress</t>
+          <t>Center for a New American Security</t>
         </is>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Center for Community Self-Help</t>
+          <t>Center for American Progress</t>
         </is>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Center for Democracy in the Americas</t>
+          <t>Center for Community Self-Help</t>
         </is>
       </c>
       <c r="B74">
@@ -1102,7 +1102,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Center for Earth, Energy and Democracy</t>
+          <t>Center for Democracy in the Americas</t>
         </is>
       </c>
       <c r="B75">
@@ -1112,47 +1112,47 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Center for Global Development</t>
+          <t>Center for Earth, Energy and Democracy</t>
         </is>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Center for Law and Social Policy</t>
+          <t>Center for Global Development</t>
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Center for Strategic and International Studies</t>
+          <t>Center for Law and Social Policy</t>
         </is>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Center on Budget and Policy Priorities</t>
+          <t>Center for Strategic and International Studies</t>
         </is>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Central Intelligence Agency (Retired)</t>
+          <t>Center on Budget and Policy Priorities</t>
         </is>
       </c>
       <c r="B80">
@@ -1162,27 +1162,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Chan Zuckerberg Initiative</t>
+          <t>Central Intelligence Agency (Retired)</t>
         </is>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>City of Los Angeles</t>
+          <t>Chan Zuckerberg Initiative</t>
         </is>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cityfi</t>
+          <t>City of Los Angeles</t>
         </is>
       </c>
       <c r="B83">
@@ -1192,7 +1192,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Clifford Chance US, LLP</t>
+          <t>Cityfi</t>
         </is>
       </c>
       <c r="B84">
@@ -1202,7 +1202,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Clio Strategies, LLC</t>
+          <t>Clifford Chance US, LLP</t>
         </is>
       </c>
       <c r="B85">
@@ -1212,7 +1212,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cloudflare, Inc.</t>
+          <t>Clio Strategies, LLC</t>
         </is>
       </c>
       <c r="B86">
@@ -1222,7 +1222,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CNKinder, Inc.</t>
+          <t>Cloudflare, Inc.</t>
         </is>
       </c>
       <c r="B87">
@@ -1232,7 +1232,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Co-Equal</t>
+          <t>CNKinder, Inc.</t>
         </is>
       </c>
       <c r="B88">
@@ -1242,7 +1242,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>College Promise Campaign</t>
+          <t>Co-Equal</t>
         </is>
       </c>
       <c r="B89">
@@ -1252,7 +1252,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Colorado River Sustainability Campaign</t>
+          <t>College Promise Campaign</t>
         </is>
       </c>
       <c r="B90">
@@ -1262,27 +1262,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Columbia University</t>
+          <t>Colorado River Sustainability Campaign</t>
         </is>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Communications Workers of America</t>
+          <t>Columbia University</t>
         </is>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Community Solutions</t>
+          <t>Communications Workers of America</t>
         </is>
       </c>
       <c r="B93">
@@ -1292,7 +1292,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Conference of Minority Transportation Officials</t>
+          <t>Community Solutions</t>
         </is>
       </c>
       <c r="B94">
@@ -1302,7 +1302,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Connecticut Green Bank</t>
+          <t>Conference of Minority Transportation Officials</t>
         </is>
       </c>
       <c r="B95">
@@ -1312,7 +1312,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cooley LLP</t>
+          <t>Connecticut Green Bank</t>
         </is>
       </c>
       <c r="B96">
@@ -1322,7 +1322,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Council on Foreign Relations</t>
+          <t>Cooley LLP</t>
         </is>
       </c>
       <c r="B97">
@@ -1332,7 +1332,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cove Hill Partners</t>
+          <t>Council on Foreign Relations</t>
         </is>
       </c>
       <c r="B98">
@@ -1342,7 +1342,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Covington &amp; Burling LLP</t>
+          <t>Cove Hill Partners</t>
         </is>
       </c>
       <c r="B99">
@@ -1352,7 +1352,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Crowell &amp; Moring, LLP</t>
+          <t>Covington &amp; Burling LLP</t>
         </is>
       </c>
       <c r="B100">
@@ -1362,7 +1362,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dartmouth College</t>
+          <t>Crowell &amp; Moring, LLP</t>
         </is>
       </c>
       <c r="B101">
@@ -1372,7 +1372,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DataKind</t>
+          <t>Dartmouth College</t>
         </is>
       </c>
       <c r="B102">
@@ -1382,7 +1382,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Davis Polk &amp; Wardwell LLP</t>
+          <t>DataKind</t>
         </is>
       </c>
       <c r="B103">
@@ -1392,7 +1392,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Delaware Department of Justice</t>
+          <t>Davis Polk &amp; Wardwell LLP</t>
         </is>
       </c>
       <c r="B104">
@@ -1402,7 +1402,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dell Technologies</t>
+          <t>Delaware Department of Justice</t>
         </is>
       </c>
       <c r="B105">
@@ -1412,7 +1412,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Deloitte &amp; Touche, LLP</t>
+          <t>Delaware State University</t>
         </is>
       </c>
       <c r="B106">
@@ -1422,7 +1422,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Deloitte Consulting LLC</t>
+          <t>Dell Technologies</t>
         </is>
       </c>
       <c r="B107">
@@ -1432,7 +1432,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Deloitte Consulting, LLP</t>
+          <t>Deloitte &amp; Touche, LLP</t>
         </is>
       </c>
       <c r="B108">
@@ -1442,7 +1442,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Democracy Forward Foundation</t>
+          <t>Deloitte Consulting LLC</t>
         </is>
       </c>
       <c r="B109">
@@ -1452,7 +1452,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Democracy Fund</t>
+          <t>Deloitte Consulting, LLP</t>
         </is>
       </c>
       <c r="B110">
@@ -1462,17 +1462,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Democratic National Committee</t>
+          <t>Democracy Forward Foundation</t>
         </is>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Democratic National Committee — Coordinated Campaign</t>
+          <t>Democracy Fund</t>
         </is>
       </c>
       <c r="B112">
@@ -1482,17 +1482,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Democratic National Convention Committee</t>
+          <t>Democratic National Committee</t>
         </is>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Department of State (Retired)</t>
+          <t>Democratic National Committee — Coordinated Campaign</t>
         </is>
       </c>
       <c r="B114">
@@ -1502,17 +1502,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Devoted Health</t>
+          <t>Democratic National Convention Committee</t>
         </is>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Directors Guild of America</t>
+          <t>Democratic Party of Georgia</t>
         </is>
       </c>
       <c r="B116">
@@ -1522,7 +1522,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>District Department of Transportation</t>
+          <t>Democratic Party of Wisconsin</t>
         </is>
       </c>
       <c r="B117">
@@ -1532,7 +1532,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>District of Columbia, Commission on the Arts and Humanities</t>
+          <t>Department of State (Retired)</t>
         </is>
       </c>
       <c r="B118">
@@ -1542,17 +1542,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DKC Public Relations</t>
+          <t>Devoted Health</t>
         </is>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DLA Piper, LLP</t>
+          <t>Directors Guild of America</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,17 +1562,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dropbox</t>
+          <t>District Department of Transportation</t>
         </is>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Duke University</t>
+          <t>District of Columbia, Commission on the Arts and Humanities</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Duke University, Bipartisan Policy Center</t>
+          <t>DKC Public Relations</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,7 +1592,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Earthjustice</t>
+          <t>DLA Piper, LLP</t>
         </is>
       </c>
       <c r="B124">
@@ -1602,17 +1602,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Elevate, LLC</t>
+          <t>Dropbox</t>
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ellison Institute, University of Southern California</t>
+          <t>Duke University</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Empire State Development</t>
+          <t>Duke University, Bipartisan Policy Center</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Energy Foundation</t>
+          <t>Earthjustice</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Environmental Defense Fund</t>
+          <t>Elevate, LLC</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,7 +1652,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Evercore ISI</t>
+          <t>Ellison Institute, University of Southern California</t>
         </is>
       </c>
       <c r="B130">
@@ -1662,7 +1662,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Evergreen Action</t>
+          <t>Empire State Development</t>
         </is>
       </c>
       <c r="B131">
@@ -1672,7 +1672,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EVgo</t>
+          <t>Energy Foundation</t>
         </is>
       </c>
       <c r="B132">
@@ -1682,7 +1682,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
+          <t>Environmental Defense Fund</t>
         </is>
       </c>
       <c r="B133">
@@ -1692,17 +1692,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Facebook, Inc.</t>
+          <t>Evercore ISI</t>
         </is>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fair Fight Action</t>
+          <t>Evergreen Action</t>
         </is>
       </c>
       <c r="B135">
@@ -1712,7 +1712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Families USA</t>
+          <t>EVgo</t>
         </is>
       </c>
       <c r="B136">
@@ -1722,7 +1722,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Federal Trade Commission (Retired)</t>
+          <t>Executive Office of Mayor Muriel Bowser, District of Columbia Government</t>
         </is>
       </c>
       <c r="B137">
@@ -1732,17 +1732,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Figma</t>
+          <t>Facebook, Inc.</t>
         </is>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FiscalNote</t>
+          <t>Fair Fight Action</t>
         </is>
       </c>
       <c r="B139">
@@ -1752,7 +1752,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Florida International University</t>
+          <t>Families USA</t>
         </is>
       </c>
       <c r="B140">
@@ -1762,7 +1762,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FoodCorps</t>
+          <t>Federal Trade Commission (Retired)</t>
         </is>
       </c>
       <c r="B141">
@@ -1772,7 +1772,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Future Partners LLC</t>
+          <t>Figma</t>
         </is>
       </c>
       <c r="B142">
@@ -1782,7 +1782,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gamble Advisory Group</t>
+          <t>FiscalNote</t>
         </is>
       </c>
       <c r="B143">
@@ -1792,7 +1792,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gates Ventures</t>
+          <t>Florida Democratic Party</t>
         </is>
       </c>
       <c r="B144">
@@ -1802,7 +1802,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Generate</t>
+          <t>Florida International University</t>
         </is>
       </c>
       <c r="B145">
@@ -1812,17 +1812,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>George Washington University</t>
+          <t>FoodCorps</t>
         </is>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>George Washington University, The Elliott School of International Affairs</t>
+          <t>Future Partners LLC</t>
         </is>
       </c>
       <c r="B147">
@@ -1832,17 +1832,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Georgetown University</t>
+          <t>Gamble Advisory Group</t>
         </is>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Georgetown University Law Center</t>
+          <t>Gates Ventures</t>
         </is>
       </c>
       <c r="B149">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Georgia Institute of Technology</t>
+          <t>Generate</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,17 +1862,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GiveDirectly</t>
+          <t>George Washington University</t>
         </is>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Global Counsel, LLC</t>
+          <t>George Washington University, The Elliott School of International Affairs</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,17 +1882,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Goldman Sachs &amp; Co.</t>
+          <t>Georgetown University</t>
         </is>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Google, LLC</t>
+          <t>Georgetown University Law Center</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Greater Washington Black Chamber of Commerce</t>
+          <t>Georgia Institute of Technology</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Green Marble Group</t>
+          <t>GiveDirectly</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Grist Magazine, Inc.</t>
+          <t>Global Counsel, LLC</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,17 +1932,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Guidehouse, Inc.</t>
+          <t>Goldman Sachs &amp; Co.</t>
         </is>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Gulf of Maine Research Institute</t>
+          <t>Google, LLC</t>
         </is>
       </c>
       <c r="B159">
@@ -1952,7 +1952,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Harris, Wiltshire and Grannis, LLP</t>
+          <t>Greater Washington Black Chamber of Commerce</t>
         </is>
       </c>
       <c r="B160">
@@ -1962,7 +1962,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Hartford Foundation for Public Giving</t>
+          <t>Green Marble Group</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Harvard Environmental and Energy Law Program</t>
+          <t>Grist Magazine, Inc.</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,17 +1982,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Harvard Law School</t>
+          <t>Guidehouse, Inc.</t>
         </is>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Harvard University</t>
+          <t>Gulf of Maine Research Institute</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Healing Justice Project</t>
+          <t>Harris, Wiltshire and Grannis, LLP</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Health Management Associates</t>
+          <t>Hartford Foundation for Public Giving</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Helena Foundation</t>
+          <t>Harvard Environmental and Energy Law Program</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,17 +2032,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>High Water Mark, LLC</t>
+          <t>Harvard Law School</t>
         </is>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hills &amp; Company</t>
+          <t>Harvard University</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Hogan Lovells, LLP</t>
+          <t>Healing Justice Project</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hope Enterprise Corporation</t>
+          <t>Health Management Associates</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,7 +2072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Housing Partnership Network</t>
+          <t>Helena Foundation</t>
         </is>
       </c>
       <c r="B172">
@@ -2082,7 +2082,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Howard University</t>
+          <t>High Water Mark, LLC</t>
         </is>
       </c>
       <c r="B173">
@@ -2092,7 +2092,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Hudson-Webber Foundation</t>
+          <t>Hills &amp; Company</t>
         </is>
       </c>
       <c r="B174">
@@ -2102,7 +2102,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Huntington Ingalls Industries</t>
+          <t>Hogan Lovells, LLP</t>
         </is>
       </c>
       <c r="B175">
@@ -2112,7 +2112,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Hunton Andrews Kurth, LLP</t>
+          <t>Hope Enterprise Corporation</t>
         </is>
       </c>
       <c r="B176">
@@ -2122,7 +2122,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HWC, Inc.</t>
+          <t>Housing Partnership Network</t>
         </is>
       </c>
       <c r="B177">
@@ -2132,7 +2132,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>I AM ALS</t>
+          <t>Howard University</t>
         </is>
       </c>
       <c r="B178">
@@ -2142,17 +2142,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>IDA Science and Technology Policy Institute</t>
+          <t>Hudson-Webber Foundation</t>
         </is>
       </c>
       <c r="B179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Imbue Group, Inc.</t>
+          <t>Huntington Ingalls Industries</t>
         </is>
       </c>
       <c r="B180">
@@ -2162,7 +2162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Impact Master Holdings</t>
+          <t>Hunton Andrews Kurth, LLP</t>
         </is>
       </c>
       <c r="B181">
@@ -2172,7 +2172,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>In-Q-Tel</t>
+          <t>HWC, Inc.</t>
         </is>
       </c>
       <c r="B182">
@@ -2182,7 +2182,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Indiana University Maurer School of Law</t>
+          <t>I AM ALS</t>
         </is>
       </c>
       <c r="B183">
@@ -2192,17 +2192,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Indianapolis Airport Authority</t>
+          <t>IDA Science and Technology Policy Institute</t>
         </is>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Innovative Emergency Management</t>
+          <t>Imbue Group, Inc.</t>
         </is>
       </c>
       <c r="B185">
@@ -2212,7 +2212,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Institutes for Behavior Resources, Inc.</t>
+          <t>Impact Master Holdings</t>
         </is>
       </c>
       <c r="B186">
@@ -2222,17 +2222,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>International Association of Machinists and Aerospace Workers</t>
+          <t>In-Q-Tel</t>
         </is>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>International Brotherhood of Teamsters</t>
+          <t>Indiana University Maurer School of Law</t>
         </is>
       </c>
       <c r="B188">
@@ -2242,7 +2242,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>International Capital Strategies, LLC</t>
+          <t>Indianapolis Airport Authority</t>
         </is>
       </c>
       <c r="B189">
@@ -2252,7 +2252,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>International Energy Agency</t>
+          <t>Innovative Emergency Management</t>
         </is>
       </c>
       <c r="B190">
@@ -2262,7 +2262,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>International Public Safety Data Institute</t>
+          <t>Institutes for Behavior Resources, Inc.</t>
         </is>
       </c>
       <c r="B191">
@@ -2272,7 +2272,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Jobs for the Future, Inc.</t>
+          <t>International Association of Machinists and Aerospace Workers</t>
         </is>
       </c>
       <c r="B192">
@@ -2282,7 +2282,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>John Jay College of Criminal Justice</t>
+          <t>International Brotherhood of Teamsters</t>
         </is>
       </c>
       <c r="B193">
@@ -2292,7 +2292,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Johns Hopkins University</t>
+          <t>International Capital Strategies, LLC</t>
         </is>
       </c>
       <c r="B194">
@@ -2302,7 +2302,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Johns Hopkins University, School of Advanced International Studies</t>
+          <t>International Energy Agency</t>
         </is>
       </c>
       <c r="B195">
@@ -2312,7 +2312,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Jones Day</t>
+          <t>International Public Safety Data Institute</t>
         </is>
       </c>
       <c r="B196">
@@ -2322,7 +2322,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co</t>
+          <t>Jobs for the Future, Inc.</t>
         </is>
       </c>
       <c r="B197">
@@ -2332,7 +2332,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Juggernaut, LLC</t>
+          <t>John Jay College of Criminal Justice</t>
         </is>
       </c>
       <c r="B198">
@@ -2342,17 +2342,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Justice Catalyst Law, Inc.</t>
+          <t>Johns Hopkins University</t>
         </is>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>KeyBank</t>
+          <t>Johns Hopkins University, School of Advanced International Studies</t>
         </is>
       </c>
       <c r="B200">
@@ -2362,17 +2362,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Latham &amp; Watkins, LLP</t>
+          <t>Jones Day</t>
         </is>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Laudes Foundation</t>
+          <t>JPMorgan Chase &amp; Co</t>
         </is>
       </c>
       <c r="B202">
@@ -2382,17 +2382,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Learning Policy Institute</t>
+          <t>Juggernaut, LLC</t>
         </is>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>LINK Houston</t>
+          <t>Justice Catalyst Law, Inc.</t>
         </is>
       </c>
       <c r="B204">
@@ -2402,7 +2402,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>LinkedIn Corporation</t>
+          <t>KeyBank</t>
         </is>
       </c>
       <c r="B205">
@@ -2412,17 +2412,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Linklaters LLP</t>
+          <t>Latham &amp; Watkins, LLP</t>
         </is>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Los Angeles Community College District</t>
+          <t>Laudes Foundation</t>
         </is>
       </c>
       <c r="B207">
@@ -2432,17 +2432,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Los Angeles County Metropolitan Transportation Authority</t>
+          <t>Learning Policy Institute</t>
         </is>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Los Angeles Homeless Services Authority</t>
+          <t>LINK Houston</t>
         </is>
       </c>
       <c r="B209">
@@ -2452,7 +2452,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Lucky Dog Animal Rescue</t>
+          <t>LinkedIn Corporation</t>
         </is>
       </c>
       <c r="B210">
@@ -2462,7 +2462,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Lyft, Inc.</t>
+          <t>Linklaters LLP</t>
         </is>
       </c>
       <c r="B211">
@@ -2472,17 +2472,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Manatt, Phelps and Phillips, LLP</t>
+          <t>Los Angeles Community College District</t>
         </is>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>March of Dimes</t>
+          <t>Los Angeles County Metropolitan Transportation Authority</t>
         </is>
       </c>
       <c r="B213">
@@ -2492,7 +2492,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Marguerite Casey Foundation</t>
+          <t>Los Angeles Homeless Services Authority</t>
         </is>
       </c>
       <c r="B214">
@@ -2502,27 +2502,27 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Markle Foundation</t>
+          <t>Lucky Dog Animal Rescue</t>
         </is>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Massachusetts Bay Transportation Authority</t>
+          <t>Lyft, Inc.</t>
         </is>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Manatt, Phelps and Phillips, LLP</t>
         </is>
       </c>
       <c r="B217">
@@ -2532,7 +2532,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MassMutual</t>
+          <t>March of Dimes</t>
         </is>
       </c>
       <c r="B218">
@@ -2542,7 +2542,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mayer Brown, LLP</t>
+          <t>Marguerite Casey Foundation</t>
         </is>
       </c>
       <c r="B219">
@@ -2552,37 +2552,37 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>McChrystal Group</t>
+          <t>Markle Foundation</t>
         </is>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MediaMath</t>
+          <t>Massachusetts Bay Transportation Authority</t>
         </is>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Medsphere Systems Corporation</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MedStar Health</t>
+          <t>MassMutual</t>
         </is>
       </c>
       <c r="B223">
@@ -2592,7 +2592,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Meow Wolf, Inc.</t>
+          <t>Mayer Brown, LLP</t>
         </is>
       </c>
       <c r="B224">
@@ -2602,7 +2602,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Mercy Corps</t>
+          <t>McChrystal Group</t>
         </is>
       </c>
       <c r="B225">
@@ -2612,7 +2612,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Metropolitan Transportation Commission</t>
+          <t>MediaMath</t>
         </is>
       </c>
       <c r="B226">
@@ -2622,7 +2622,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Michigan State University</t>
+          <t>Medsphere Systems Corporation</t>
         </is>
       </c>
       <c r="B227">
@@ -2632,7 +2632,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Middle East Broadcasting Networks (Retired)</t>
+          <t>MedStar Health</t>
         </is>
       </c>
       <c r="B228">
@@ -2642,7 +2642,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Migration Policy Institute</t>
+          <t>Meow Wolf, Inc.</t>
         </is>
       </c>
       <c r="B229">
@@ -2652,7 +2652,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Moneta Group</t>
+          <t>Mercy Corps</t>
         </is>
       </c>
       <c r="B230">
@@ -2662,7 +2662,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Morgan, Lewis &amp; Bockius, LLP</t>
+          <t>Metropolitan Transportation Commission</t>
         </is>
       </c>
       <c r="B231">
@@ -2672,7 +2672,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Morrison &amp; Foerster LLC</t>
+          <t>Michigan Democratic Party</t>
         </is>
       </c>
       <c r="B232">
@@ -2682,7 +2682,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Mortgage Bankers Association</t>
+          <t>Michigan State University</t>
         </is>
       </c>
       <c r="B233">
@@ -2692,7 +2692,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>National Association for Latino Community Asset Builders</t>
+          <t>Middle East Broadcasting Networks (Retired)</t>
         </is>
       </c>
       <c r="B234">
@@ -2702,7 +2702,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>National Association of Affordable Housing Lenders</t>
+          <t>Migration Policy Institute</t>
         </is>
       </c>
       <c r="B235">
@@ -2712,7 +2712,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>National Association of Letter Carriers</t>
+          <t>Moneta Group</t>
         </is>
       </c>
       <c r="B236">
@@ -2722,7 +2722,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>National Audubon Society</t>
+          <t>Morgan, Lewis &amp; Bockius, LLP</t>
         </is>
       </c>
       <c r="B237">
@@ -2732,7 +2732,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>National Community Stabilization Trust</t>
+          <t>Morrison &amp; Foerster LLC</t>
         </is>
       </c>
       <c r="B238">
@@ -2742,7 +2742,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>National Conference on Citizenship</t>
+          <t>Mortgage Bankers Association</t>
         </is>
       </c>
       <c r="B239">
@@ -2752,7 +2752,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>National Credit Union Administration (Retired)</t>
+          <t>National Association for Latino Community Asset Builders</t>
         </is>
       </c>
       <c r="B240">
@@ -2762,7 +2762,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>National Day Laborer Organizing Network (NDLON)</t>
+          <t>National Association of Affordable Housing Lenders</t>
         </is>
       </c>
       <c r="B241">
@@ -2772,7 +2772,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>National Democratic Institute</t>
+          <t>National Association of Letter Carriers</t>
         </is>
       </c>
       <c r="B242">
@@ -2782,27 +2782,27 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>National Education Association</t>
+          <t>National Audubon Society</t>
         </is>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>National Employment Law Project</t>
+          <t>National Community Stabilization Trust</t>
         </is>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>National Energy Management Institute Committee</t>
+          <t>National Conference on Citizenship</t>
         </is>
       </c>
       <c r="B245">
@@ -2812,7 +2812,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>National Marine Sanctuary Foundation</t>
+          <t>National Credit Union Administration (Retired)</t>
         </is>
       </c>
       <c r="B246">
@@ -2822,7 +2822,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>National Oceanic and Atmospheric Administration (Retired)</t>
+          <t>National Day Laborer Organizing Network (NDLON)</t>
         </is>
       </c>
       <c r="B247">
@@ -2832,7 +2832,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>National Resources Defense Council, Inc.</t>
+          <t>National Democratic Institute</t>
         </is>
       </c>
       <c r="B248">
@@ -2842,37 +2842,37 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>National Security Action</t>
+          <t>National Education Association</t>
         </is>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Native American Agriculture Fund</t>
+          <t>National Employment Law Project</t>
         </is>
       </c>
       <c r="B250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>New America</t>
+          <t>National Energy Management Institute Committee</t>
         </is>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>New Mexico State University</t>
+          <t>National Marine Sanctuary Foundation</t>
         </is>
       </c>
       <c r="B252">
@@ -2882,7 +2882,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>New York City, Department of City Planning</t>
+          <t>National Oceanic and Atmospheric Administration (Retired)</t>
         </is>
       </c>
       <c r="B253">
@@ -2892,7 +2892,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>New York City, Department of Transportation</t>
+          <t>National Resources Defense Council, Inc.</t>
         </is>
       </c>
       <c r="B254">
@@ -2902,17 +2902,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>New York University</t>
+          <t>National Security Action</t>
         </is>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>New York University, Furman Center</t>
+          <t>Native American Agriculture Fund</t>
         </is>
       </c>
       <c r="B256">
@@ -2922,17 +2922,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>New York University, School of Law</t>
+          <t>New America</t>
         </is>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Brennan Center for Justice</t>
+          <t>New Hampshire Democratic Party</t>
         </is>
       </c>
       <c r="B258">
@@ -2942,7 +2942,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
+          <t>New Mexico State University</t>
         </is>
       </c>
       <c r="B259">
@@ -2952,7 +2952,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
+          <t>New York City, Department of City Planning</t>
         </is>
       </c>
       <c r="B260">
@@ -2962,7 +2962,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Next Street</t>
+          <t>New York City, Department of Transportation</t>
         </is>
       </c>
       <c r="B261">
@@ -2972,37 +2972,37 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Northeastern University</t>
+          <t>New York University</t>
         </is>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Nuclear Threat Initiative</t>
+          <t>New York University, Furman Center</t>
         </is>
       </c>
       <c r="B263">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>NYC Health + Hospitals</t>
+          <t>New York University, School of Law</t>
         </is>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Oatly</t>
+          <t>New York University, School of Law, Brennan Center for Justice</t>
         </is>
       </c>
       <c r="B265">
@@ -3012,7 +3012,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ocean Wonks</t>
+          <t>New York University, School of Law, Institute for Corporate Governance and Finance</t>
         </is>
       </c>
       <c r="B266">
@@ -3022,17 +3022,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Office of Senator Elizabeth Warren</t>
+          <t>New York University, School of Law, State Energy &amp; Environmental Impact Center</t>
         </is>
       </c>
       <c r="B267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Office of the Attorney General for the District of Columbia</t>
+          <t>Next Street</t>
         </is>
       </c>
       <c r="B268">
@@ -3042,7 +3042,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Office of the Speaker, Maine State Legislature</t>
+          <t>Northeastern University</t>
         </is>
       </c>
       <c r="B269">
@@ -3052,37 +3052,37 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>One Concern, Inc.</t>
+          <t>Nuclear Threat Initiative</t>
         </is>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Open Education Global</t>
+          <t>NYC Health + Hospitals</t>
         </is>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Open Society Foundations</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
+          <t>Ocean Wonks</t>
         </is>
       </c>
       <c r="B273">
@@ -3092,7 +3092,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Office of Senator Elizabeth Warren</t>
         </is>
       </c>
       <c r="B274">
@@ -3102,7 +3102,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>OtherSide Consulting, LLC</t>
+          <t>Office of the Attorney General for the District of Columbia</t>
         </is>
       </c>
       <c r="B275">
@@ -3112,7 +3112,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Oversight Board Administration</t>
+          <t>Office of the Speaker, Maine State Legislature</t>
         </is>
       </c>
       <c r="B276">
@@ -3122,7 +3122,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PA Democratic Party</t>
+          <t>One Concern, Inc.</t>
         </is>
       </c>
       <c r="B277">
@@ -3132,7 +3132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Partnership for Public Service</t>
+          <t>Open Education Global</t>
         </is>
       </c>
       <c r="B278">
@@ -3142,17 +3142,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PATH</t>
+          <t>Open Society Foundations</t>
         </is>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Paul Hastings, LLP</t>
+          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
         </is>
       </c>
       <c r="B280">
@@ -3162,17 +3162,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PEN America</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PenFed Foundation</t>
+          <t>OtherSide Consulting, LLC</t>
         </is>
       </c>
       <c r="B282">
@@ -3182,7 +3182,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Oversight Board Administration</t>
         </is>
       </c>
       <c r="B283">
@@ -3192,7 +3192,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Pew Charitable Trusts</t>
+          <t>PA Democratic Party</t>
         </is>
       </c>
       <c r="B284">
@@ -3202,7 +3202,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Philanthropy Northwest</t>
+          <t>Partnership for Public Service</t>
         </is>
       </c>
       <c r="B285">
@@ -3212,7 +3212,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>PATH</t>
         </is>
       </c>
       <c r="B286">
@@ -3222,7 +3222,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Prudential PLC</t>
+          <t>Paul Hastings, LLP</t>
         </is>
       </c>
       <c r="B287">
@@ -3232,7 +3232,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Public Knowledge</t>
+          <t>PEN America</t>
         </is>
       </c>
       <c r="B288">
@@ -3242,7 +3242,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Public Private Strategies</t>
+          <t>PenFed Foundation</t>
         </is>
       </c>
       <c r="B289">
@@ -3252,27 +3252,27 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RAND Corporation</t>
+          <t>Pennsylvania Democratic Party</t>
         </is>
       </c>
       <c r="B290">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Rebellion Defense</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Red River Associates</t>
+          <t>Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B292">
@@ -3282,7 +3282,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>REFORM Alliance</t>
+          <t>Philanthropy Northwest</t>
         </is>
       </c>
       <c r="B293">
@@ -3292,7 +3292,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Refugees International</t>
+          <t>Princeton University</t>
         </is>
       </c>
       <c r="B294">
@@ -3302,17 +3302,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
+          <t>Prudential PLC</t>
         </is>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
+          <t>Public Knowledge</t>
         </is>
       </c>
       <c r="B296">
@@ -3322,7 +3322,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Rocky Mountain Institute</t>
+          <t>Public Private Strategies</t>
         </is>
       </c>
       <c r="B297">
@@ -3332,27 +3332,27 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Roosevelt Institute</t>
+          <t>RAND Corporation</t>
         </is>
       </c>
       <c r="B298">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Roti Modern Mediterranean</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Salesforce.com, Inc.</t>
+          <t>Red River Associates</t>
         </is>
       </c>
       <c r="B300">
@@ -3362,7 +3362,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Santa Clara University</t>
+          <t>REFORM Alliance</t>
         </is>
       </c>
       <c r="B301">
@@ -3372,7 +3372,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Schmidt Futures</t>
+          <t>Refugees International</t>
         </is>
       </c>
       <c r="B302">
@@ -3382,17 +3382,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
         </is>
       </c>
       <c r="B303">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Senshi Ame Advisors, LLC</t>
+          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
         </is>
       </c>
       <c r="B304">
@@ -3402,7 +3402,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Sequoia Capital Operations, LLC</t>
+          <t>Rocky Mountain Institute</t>
         </is>
       </c>
       <c r="B305">
@@ -3412,7 +3412,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Service Employees International Union</t>
+          <t>Roosevelt Institute</t>
         </is>
       </c>
       <c r="B306">
@@ -3422,7 +3422,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
+          <t>Roti Modern Mediterranean</t>
         </is>
       </c>
       <c r="B307">
@@ -3432,7 +3432,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Sherman Dunn, P.C.</t>
+          <t>Salesforce.com, Inc.</t>
         </is>
       </c>
       <c r="B308">
@@ -3442,7 +3442,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Sidewalk Labs</t>
+          <t>Santa Clara University</t>
         </is>
       </c>
       <c r="B309">
@@ -3452,7 +3452,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Sidley Austin, LLP</t>
+          <t>Schmidt Futures</t>
         </is>
       </c>
       <c r="B310">
@@ -3462,17 +3462,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SimpliFed</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>Senshi Ame Advisors, LLC</t>
         </is>
       </c>
       <c r="B312">
@@ -3482,7 +3482,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Smartjob LLC</t>
+          <t>Sequoia Capital Operations, LLC</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,17 +3492,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Sophant Consulting</t>
+          <t>Service Employees International Union</t>
         </is>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
         </is>
       </c>
       <c r="B315">
@@ -3512,17 +3512,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Sherman Dunn, P.C.</t>
         </is>
       </c>
       <c r="B316">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>State of California</t>
+          <t>Sidewalk Labs</t>
         </is>
       </c>
       <c r="B317">
@@ -3532,7 +3532,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>State of California, Department of Industrial Relations</t>
+          <t>Sidley Austin, LLP</t>
         </is>
       </c>
       <c r="B318">
@@ -3542,7 +3542,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>SimpliFed</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,7 +3552,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>State of California, Office of Digital Innovation</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="B320">
@@ -3562,7 +3562,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>State of Illinois</t>
+          <t>Smartjob LLC</t>
         </is>
       </c>
       <c r="B321">
@@ -3572,17 +3572,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>State of Michigan, Department of Health &amp; Human Services</t>
+          <t>Sophant Consulting</t>
         </is>
       </c>
       <c r="B322">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,27 +3592,27 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>State of California</t>
         </is>
       </c>
       <c r="B325">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>State of New York, Department of Financial Services</t>
+          <t>State of California, Department of Industrial Relations</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>State of New York, Homes and Community Renewal</t>
+          <t>State of California, Office of Digital Innovation</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>State of Illinois</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,17 +3652,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>State of Oregon Department of Housing and Community Services</t>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
         </is>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="B331">
@@ -3672,7 +3672,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,17 +3682,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>State of New York, Department of Financial Services</t>
         </is>
       </c>
       <c r="B334">
@@ -3702,7 +3702,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Teach Plus, Inc</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>State of New York, Homes and Community Renewal</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,7 +3722,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Thaddeus Stevens College of Technology</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="B337">
@@ -3732,17 +3732,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
+          <t>State of Oregon Department of Housing and Community Services</t>
         </is>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>The Aspen Institute</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,7 +3752,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="B340">
@@ -3762,7 +3762,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>The Better Angels Society</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="B341">
@@ -3772,7 +3772,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>The Center for Family Safety and Healing</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="B342">
@@ -3782,7 +3782,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>The Century Foundation</t>
+          <t>Teach Plus, Inc</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,7 +3792,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>The Clark Group, LLC</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="B344">
@@ -3802,27 +3802,27 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>The Cranemere Group</t>
+          <t>Thaddeus Stevens College of Technology</t>
         </is>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>The Education Trust</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>The Estee Lauder Companies</t>
+          <t>The Aspen Institute</t>
         </is>
       </c>
       <c r="B347">
@@ -3832,7 +3832,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="B348">
@@ -3842,17 +3842,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The German Marshall Fund of the United States</t>
+          <t>The Better Angels Society</t>
         </is>
       </c>
       <c r="B349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>The Center for Family Safety and Healing</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The Institute for College Access &amp; Success</t>
+          <t>The Century Foundation</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
+          <t>The Clark Group, LLC</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,27 +3882,27 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>The Cranemere Group</t>
         </is>
       </c>
       <c r="B353">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>The Education Trust</t>
         </is>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>The Estee Lauder Companies</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,7 +3912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="B356">
@@ -3922,17 +3922,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>The German Marshall Fund of the United States</t>
         </is>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The National Education Association</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="B358">
@@ -3942,7 +3942,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>The Pew Charitable Trusts</t>
+          <t>The Institute for College Access &amp; Success</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>The Port of Seattle</t>
+          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The Raben Group, LLC</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,27 +3972,27 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The ROC Group</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="B363">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>The Solidarity Center</t>
+          <t>The National Education Association</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>The Stennis Center for Public Service</t>
+          <t>The Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
+          <t>The Port of Seattle</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The Raben Group, LLC</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>The ROC Group</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,17 +4062,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>The Washington Institute for Near East Policy</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="B372">
@@ -4082,7 +4082,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Third Way</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Toffler Associates, Inc.</t>
+          <t>The Solidarity Center</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,7 +4102,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>The Stennis Center for Public Service</t>
         </is>
       </c>
       <c r="B375">
@@ -4112,7 +4112,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Trinity University</t>
+          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,7 +4122,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="B377">
@@ -4132,7 +4132,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,7 +4142,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B379">
@@ -4152,7 +4152,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Trust for America’s Health</t>
+          <t>The Washington Institute for Near East Policy</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,7 +4162,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Third Way</t>
         </is>
       </c>
       <c r="B381">
@@ -4172,7 +4172,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>U.S. Government Accountability Office</t>
+          <t>Toffler Associates, Inc.</t>
         </is>
       </c>
       <c r="B382">
@@ -4182,17 +4182,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="B383">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>Trinity University</t>
         </is>
       </c>
       <c r="B384">
@@ -4202,7 +4202,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>U.S. Senate Foreign Relations Committee</t>
+          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,7 +4222,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="B387">
@@ -4232,17 +4232,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>UnidosUS</t>
+          <t>Trust for America’s Health</t>
         </is>
       </c>
       <c r="B388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>United Association</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,7 +4252,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>U.S. Government Accountability Office</t>
         </is>
       </c>
       <c r="B390">
@@ -4262,27 +4262,27 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>United Nations Development Program</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="B392">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>U.S. Senate Foreign Relations Committee</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,7 +4292,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B394">
@@ -4302,7 +4302,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="B395">
@@ -4312,17 +4312,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>UnidosUS</t>
         </is>
       </c>
       <c r="B396">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Bernie Sanders</t>
+          <t>United Association</t>
         </is>
       </c>
       <c r="B397">
@@ -4332,7 +4332,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>United Nations Development Program</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,17 +4352,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="B400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="B401">
@@ -4372,17 +4372,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>University of California, Berkeley</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="B402">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="B403">
@@ -4392,27 +4392,27 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>United States Postal Service</t>
         </is>
       </c>
       <c r="B404">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>University of California, San Francisco</t>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>University of Chicago, Harris School of Public Policy Studies</t>
+          <t>United States Senate, Office of Senator Bernie Sanders</t>
         </is>
       </c>
       <c r="B406">
@@ -4422,7 +4422,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="B407">
@@ -4432,7 +4432,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>University of Delaware</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="B408">
@@ -4442,7 +4442,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>University of Georgia</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="B409">
@@ -4452,17 +4452,17 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="B410">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>University of Maryland, College Park</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="B411">
@@ -4472,27 +4472,27 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of California, San Francisco</t>
         </is>
       </c>
       <c r="B413">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>University of Michigan Law School</t>
+          <t>University of Chicago, Harris School of Public Policy Studies</t>
         </is>
       </c>
       <c r="B414">
@@ -4502,7 +4502,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="B415">
@@ -4512,7 +4512,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>University of Delaware</t>
         </is>
       </c>
       <c r="B416">
@@ -4522,17 +4522,17 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>University of Georgia</t>
         </is>
       </c>
       <c r="B417">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>University of Pittsburgh</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="B418">
@@ -4542,7 +4542,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>University of Texas at Austin</t>
+          <t>University of Maryland, College Park</t>
         </is>
       </c>
       <c r="B419">
@@ -4552,7 +4552,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>University of Texas at Austin, School of Law</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="B420">
@@ -4562,27 +4562,27 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Urban Alliance</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="B421">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>University of Michigan Law School</t>
         </is>
       </c>
       <c r="B422">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="B423">
@@ -4592,27 +4592,27 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="B425">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>University of Pittsburgh</t>
         </is>
       </c>
       <c r="B426">
@@ -4622,27 +4622,27 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>University of Texas at Austin</t>
         </is>
       </c>
       <c r="B427">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>University of Texas at Austin, School of Law</t>
         </is>
       </c>
       <c r="B428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>Urban Alliance</t>
         </is>
       </c>
       <c r="B429">
@@ -4652,37 +4652,37 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="B430">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="B431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Wiley Rein, LLP</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="B433">
@@ -4692,7 +4692,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>WilmerHale, LLC</t>
+          <t>Via Transportation, Inc</t>
         </is>
       </c>
       <c r="B434">
@@ -4702,7 +4702,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Women of Color Advancing Peace and Security</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="B435">
@@ -4712,27 +4712,27 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="B436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="B437">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="B438">
@@ -4742,7 +4742,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Yale Law School</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="B439">
@@ -4752,10 +4752,100 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
+          <t>WestExec Advisors</t>
+        </is>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>White &amp; Case, LLP</t>
+        </is>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Wiley Rein, LLP</t>
+        </is>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>WilmerHale, LLC</t>
+        </is>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Women of Color Advancing Peace and Security</t>
+        </is>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>WorkMerk, LLC</t>
+        </is>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>World Resources Institute</t>
+        </is>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Wyss Foundation</t>
+        </is>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Yale Law School</t>
+        </is>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
           <t>Yale University</t>
         </is>
       </c>
-      <c r="B440">
+      <c r="B449">
         <v>3</v>
       </c>
     </row>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -3042,7 +3042,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Northeastern University</t>
+          <t>North Carolina Democratic Party</t>
         </is>
       </c>
       <c r="B269">
@@ -3052,37 +3052,37 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Nuclear Threat Initiative</t>
+          <t>Northeastern University</t>
         </is>
       </c>
       <c r="B270">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>NYC Health + Hospitals</t>
+          <t>Nuclear Threat Initiative</t>
         </is>
       </c>
       <c r="B271">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Oatly</t>
+          <t>NYC Health + Hospitals</t>
         </is>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ocean Wonks</t>
+          <t>Oatly</t>
         </is>
       </c>
       <c r="B273">
@@ -3092,27 +3092,27 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Office of Senator Elizabeth Warren</t>
+          <t>Ocean Wonks</t>
         </is>
       </c>
       <c r="B274">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Office of the Attorney General for the District of Columbia</t>
+          <t>Office of Senator Elizabeth Warren</t>
         </is>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Office of the Speaker, Maine State Legislature</t>
+          <t>Office of the Attorney General for the District of Columbia</t>
         </is>
       </c>
       <c r="B276">
@@ -3122,7 +3122,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>One Concern, Inc.</t>
+          <t>Office of the Speaker, Maine State Legislature</t>
         </is>
       </c>
       <c r="B277">
@@ -3132,7 +3132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Open Education Global</t>
+          <t>One Concern, Inc.</t>
         </is>
       </c>
       <c r="B278">
@@ -3142,47 +3142,47 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Open Society Foundations</t>
+          <t>Open Education Global</t>
         </is>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
+          <t>Open Society Foundations</t>
         </is>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Oscar Health</t>
+          <t>Orrick, Herrington &amp; Sutcliffe, LLP</t>
         </is>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>OtherSide Consulting, LLC</t>
+          <t>Oscar Health</t>
         </is>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Oversight Board Administration</t>
+          <t>OtherSide Consulting, LLC</t>
         </is>
       </c>
       <c r="B283">
@@ -3192,7 +3192,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PA Democratic Party</t>
+          <t>Oversight Board Administration</t>
         </is>
       </c>
       <c r="B284">
@@ -3202,7 +3202,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Partnership for Public Service</t>
+          <t>PA Democratic Party</t>
         </is>
       </c>
       <c r="B285">
@@ -3212,7 +3212,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PATH</t>
+          <t>Partnership for Public Service</t>
         </is>
       </c>
       <c r="B286">
@@ -3222,7 +3222,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Paul Hastings, LLP</t>
+          <t>PATH</t>
         </is>
       </c>
       <c r="B287">
@@ -3232,7 +3232,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PEN America</t>
+          <t>Paul Hastings, LLP</t>
         </is>
       </c>
       <c r="B288">
@@ -3242,7 +3242,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PenFed Foundation</t>
+          <t>PEN America</t>
         </is>
       </c>
       <c r="B289">
@@ -3252,7 +3252,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Pennsylvania Democratic Party</t>
+          <t>PenFed Foundation</t>
         </is>
       </c>
       <c r="B290">
@@ -3262,17 +3262,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Pennsylvania Democratic Party</t>
         </is>
       </c>
       <c r="B291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Pew Charitable Trusts</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="B292">
@@ -3282,7 +3282,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Philanthropy Northwest</t>
+          <t>Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B293">
@@ -3292,7 +3292,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Princeton University</t>
+          <t>Philanthropy Northwest</t>
         </is>
       </c>
       <c r="B294">
@@ -3302,7 +3302,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Prudential PLC</t>
+          <t>Princeton University</t>
         </is>
       </c>
       <c r="B295">
@@ -3312,7 +3312,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Public Knowledge</t>
+          <t>Prudential PLC</t>
         </is>
       </c>
       <c r="B296">
@@ -3322,7 +3322,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Public Private Strategies</t>
+          <t>Public Knowledge</t>
         </is>
       </c>
       <c r="B297">
@@ -3332,37 +3332,37 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>RAND Corporation</t>
+          <t>Public Private Strategies</t>
         </is>
       </c>
       <c r="B298">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Rebellion Defense</t>
+          <t>RAND Corporation</t>
         </is>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Red River Associates</t>
+          <t>Rebellion Defense</t>
         </is>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>REFORM Alliance</t>
+          <t>Red River Associates</t>
         </is>
       </c>
       <c r="B301">
@@ -3372,7 +3372,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Refugees International</t>
+          <t>REFORM Alliance</t>
         </is>
       </c>
       <c r="B302">
@@ -3382,27 +3382,27 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
+          <t>Refugees International</t>
         </is>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
+          <t>Research Corporation of the University of Hawaii – Pacific Disaster Center</t>
         </is>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Rocky Mountain Institute</t>
+          <t>Resolve to Save Lives, an initiative of Vital Strategies</t>
         </is>
       </c>
       <c r="B305">
@@ -3412,27 +3412,27 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Roosevelt Institute</t>
+          <t>Rocky Mountain Institute</t>
         </is>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Roti Modern Mediterranean</t>
+          <t>Roosevelt Institute</t>
         </is>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Salesforce.com, Inc.</t>
+          <t>Roti Modern Mediterranean</t>
         </is>
       </c>
       <c r="B308">
@@ -3442,7 +3442,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Santa Clara University</t>
+          <t>Salesforce.com, Inc.</t>
         </is>
       </c>
       <c r="B309">
@@ -3452,7 +3452,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Schmidt Futures</t>
+          <t>Santa Clara University</t>
         </is>
       </c>
       <c r="B310">
@@ -3462,27 +3462,27 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Schmidt Futures</t>
         </is>
       </c>
       <c r="B311">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Senshi Ame Advisors, LLC</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Sequoia Capital Operations, LLC</t>
+          <t>Senshi Ame Advisors, LLC</t>
         </is>
       </c>
       <c r="B313">
@@ -3492,27 +3492,27 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Service Employees International Union</t>
+          <t>Sequoia Capital Operations, LLC</t>
         </is>
       </c>
       <c r="B314">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
+          <t>Service Employees International Union</t>
         </is>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Sherman Dunn, P.C.</t>
+          <t>Sheppard Mullin Richter &amp; Hampton, LLP</t>
         </is>
       </c>
       <c r="B316">
@@ -3522,7 +3522,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Sidewalk Labs</t>
+          <t>Sherman Dunn, P.C.</t>
         </is>
       </c>
       <c r="B317">
@@ -3532,7 +3532,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Sidley Austin, LLP</t>
+          <t>Sidewalk Labs</t>
         </is>
       </c>
       <c r="B318">
@@ -3542,7 +3542,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SimpliFed</t>
+          <t>Sidley Austin, LLP</t>
         </is>
       </c>
       <c r="B319">
@@ -3552,7 +3552,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
+          <t>SimpliFed</t>
         </is>
       </c>
       <c r="B320">
@@ -3562,7 +3562,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Smartjob LLC</t>
+          <t>Skadden, Arps, Slate, Meagher &amp; Flom LLP</t>
         </is>
       </c>
       <c r="B321">
@@ -3572,7 +3572,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Sophant Consulting</t>
+          <t>Smartjob LLC</t>
         </is>
       </c>
       <c r="B322">
@@ -3582,7 +3582,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Southern Appalachian Wilderness Stewards</t>
+          <t>Sophant Consulting</t>
         </is>
       </c>
       <c r="B323">
@@ -3592,27 +3592,27 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Stanford University</t>
+          <t>Southern Appalachian Wilderness Stewards</t>
         </is>
       </c>
       <c r="B324">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>State of California</t>
+          <t>Stanford University</t>
         </is>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>State of California, Department of Industrial Relations</t>
+          <t>State of California</t>
         </is>
       </c>
       <c r="B326">
@@ -3622,7 +3622,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
+          <t>State of California, Department of Industrial Relations</t>
         </is>
       </c>
       <c r="B327">
@@ -3632,7 +3632,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>State of California, Office of Digital Innovation</t>
+          <t>State of California, Governor’s Office of Business &amp; Economic Development</t>
         </is>
       </c>
       <c r="B328">
@@ -3642,7 +3642,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>State of Illinois</t>
+          <t>State of California, Office of Digital Innovation</t>
         </is>
       </c>
       <c r="B329">
@@ -3652,27 +3652,27 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>State of Michigan, Department of Health &amp; Human Services</t>
+          <t>State of Illinois</t>
         </is>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>State of New Jersey</t>
+          <t>State of Michigan, Department of Health &amp; Human Services</t>
         </is>
       </c>
       <c r="B331">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
+          <t>State of New Jersey</t>
         </is>
       </c>
       <c r="B332">
@@ -3682,27 +3682,27 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>State of New Mexico</t>
+          <t>State of New Jersey, Department of Children and Families, Division on Women</t>
         </is>
       </c>
       <c r="B333">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>State of New York, Department of Financial Services</t>
+          <t>State of New Mexico</t>
         </is>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>State of New York, Department of Health</t>
+          <t>State of New York, Department of Financial Services</t>
         </is>
       </c>
       <c r="B335">
@@ -3712,7 +3712,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>State of New York, Homes and Community Renewal</t>
+          <t>State of New York, Department of Health</t>
         </is>
       </c>
       <c r="B336">
@@ -3722,7 +3722,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>State of North Carolina, Department of Information Technology</t>
+          <t>State of New York, Homes and Community Renewal</t>
         </is>
       </c>
       <c r="B337">
@@ -3732,7 +3732,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>State of Oregon Department of Housing and Community Services</t>
+          <t>State of North Carolina, Department of Information Technology</t>
         </is>
       </c>
       <c r="B338">
@@ -3742,7 +3742,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Stripe</t>
+          <t>State of Oregon Department of Housing and Community Services</t>
         </is>
       </c>
       <c r="B339">
@@ -3752,7 +3752,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Strongbow Strategies</t>
+          <t>Stripe</t>
         </is>
       </c>
       <c r="B340">
@@ -3762,17 +3762,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Sums 15 Holdings, LLC</t>
+          <t>Strongbow Strategies</t>
         </is>
       </c>
       <c r="B341">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Tableau Software</t>
+          <t>Sums 15 Holdings, LLC</t>
         </is>
       </c>
       <c r="B342">
@@ -3782,7 +3782,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Teach Plus, Inc</t>
+          <t>Tableau Software</t>
         </is>
       </c>
       <c r="B343">
@@ -3792,7 +3792,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Texas A&amp;M University System (Retired)</t>
+          <t>Teach Plus, Inc</t>
         </is>
       </c>
       <c r="B344">
@@ -3802,7 +3802,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Thaddeus Stevens College of Technology</t>
+          <t>Texas A&amp;M University System (Retired)</t>
         </is>
       </c>
       <c r="B345">
@@ -3812,27 +3812,27 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>The American Association for the Advancement of Science</t>
+          <t>Thaddeus Stevens College of Technology</t>
         </is>
       </c>
       <c r="B346">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>The Aspen Institute</t>
+          <t>The American Association for the Advancement of Science</t>
         </is>
       </c>
       <c r="B347">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>The Association of Former Members of Congress</t>
+          <t>The Aspen Institute</t>
         </is>
       </c>
       <c r="B348">
@@ -3842,7 +3842,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>The Better Angels Society</t>
+          <t>The Association of Former Members of Congress</t>
         </is>
       </c>
       <c r="B349">
@@ -3852,7 +3852,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>The Center for Family Safety and Healing</t>
+          <t>The Better Angels Society</t>
         </is>
       </c>
       <c r="B350">
@@ -3862,7 +3862,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>The Century Foundation</t>
+          <t>The Center for Family Safety and Healing</t>
         </is>
       </c>
       <c r="B351">
@@ -3872,7 +3872,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>The Clark Group, LLC</t>
+          <t>The Century Foundation</t>
         </is>
       </c>
       <c r="B352">
@@ -3882,27 +3882,27 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>The Cranemere Group</t>
+          <t>The Clark Group, LLC</t>
         </is>
       </c>
       <c r="B353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>The Education Trust</t>
+          <t>The Cranemere Group</t>
         </is>
       </c>
       <c r="B354">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>The Estee Lauder Companies</t>
+          <t>The Education Trust</t>
         </is>
       </c>
       <c r="B355">
@@ -3912,7 +3912,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>The Everglades Foundation</t>
+          <t>The Estee Lauder Companies</t>
         </is>
       </c>
       <c r="B356">
@@ -3922,27 +3922,27 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>The German Marshall Fund of the United States</t>
+          <t>The Everglades Foundation</t>
         </is>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>The Good Food Institute</t>
+          <t>The German Marshall Fund of the United States</t>
         </is>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>The Institute for College Access &amp; Success</t>
+          <t>The Good Food Institute</t>
         </is>
       </c>
       <c r="B359">
@@ -3952,7 +3952,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
+          <t>The Institute for College Access &amp; Success</t>
         </is>
       </c>
       <c r="B360">
@@ -3962,7 +3962,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>The International Rescue Committee</t>
+          <t>The Institute of Electronic and Electrical Engineers, Inc.</t>
         </is>
       </c>
       <c r="B361">
@@ -3972,27 +3972,27 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>The Levy Group, Inc.</t>
+          <t>The International Rescue Committee</t>
         </is>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>The Lightsmith Group</t>
+          <t>The Levy Group, Inc.</t>
         </is>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>The Movement Cooperative</t>
+          <t>The Lightsmith Group</t>
         </is>
       </c>
       <c r="B364">
@@ -4002,7 +4002,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>The National Center for American Indian Enterprise Development</t>
+          <t>The Movement Cooperative</t>
         </is>
       </c>
       <c r="B365">
@@ -4012,7 +4012,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>The National Education Association</t>
+          <t>The National Center for American Indian Enterprise Development</t>
         </is>
       </c>
       <c r="B366">
@@ -4022,7 +4022,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>The Pew Charitable Trusts</t>
+          <t>The National Education Association</t>
         </is>
       </c>
       <c r="B367">
@@ -4032,7 +4032,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>The Port of Seattle</t>
+          <t>The Pew Charitable Trusts</t>
         </is>
       </c>
       <c r="B368">
@@ -4042,7 +4042,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>The Raben Group, LLC</t>
+          <t>The Port of Seattle</t>
         </is>
       </c>
       <c r="B369">
@@ -4052,7 +4052,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>The ROC Group</t>
+          <t>The Raben Group, LLC</t>
         </is>
       </c>
       <c r="B370">
@@ -4062,27 +4062,27 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>The Roosevelt Institute</t>
+          <t>The ROC Group</t>
         </is>
       </c>
       <c r="B371">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>The Sierra Club</t>
+          <t>The Roosevelt Institute</t>
         </is>
       </c>
       <c r="B372">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>The Smithsonian Institution</t>
+          <t>The Sierra Club</t>
         </is>
       </c>
       <c r="B373">
@@ -4092,7 +4092,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>The Solidarity Center</t>
+          <t>The Smithsonian Institution</t>
         </is>
       </c>
       <c r="B374">
@@ -4102,7 +4102,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>The Stennis Center for Public Service</t>
+          <t>The Solidarity Center</t>
         </is>
       </c>
       <c r="B375">
@@ -4112,7 +4112,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
+          <t>The Stennis Center for Public Service</t>
         </is>
       </c>
       <c r="B376">
@@ -4122,7 +4122,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>The United Food and Commercial Workers International Union</t>
+          <t>The United Automobile, Aerospace and Agricultural Implement Workers</t>
         </is>
       </c>
       <c r="B377">
@@ -4132,7 +4132,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>The University of Illinois</t>
+          <t>The United Food and Commercial Workers International Union</t>
         </is>
       </c>
       <c r="B378">
@@ -4142,7 +4142,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>The University of Illinois</t>
         </is>
       </c>
       <c r="B379">
@@ -4152,7 +4152,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>The Washington Institute for Near East Policy</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B380">
@@ -4162,7 +4162,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Third Way</t>
+          <t>The Washington Institute for Near East Policy</t>
         </is>
       </c>
       <c r="B381">
@@ -4172,7 +4172,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Toffler Associates, Inc.</t>
+          <t>Third Way</t>
         </is>
       </c>
       <c r="B382">
@@ -4182,7 +4182,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Transport Workers Union of America, AFL-CIO</t>
+          <t>Toffler Associates, Inc.</t>
         </is>
       </c>
       <c r="B383">
@@ -4192,7 +4192,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Trinity University</t>
+          <t>Transport Workers Union of America, AFL-CIO</t>
         </is>
       </c>
       <c r="B384">
@@ -4202,7 +4202,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
+          <t>Trinity University</t>
         </is>
       </c>
       <c r="B385">
@@ -4212,7 +4212,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Truepic, Inc.</t>
+          <t>Trister, Ross, Schadler &amp; Gold, PLLC</t>
         </is>
       </c>
       <c r="B386">
@@ -4222,7 +4222,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Truman Center for National Policy and Truman National Security Project</t>
+          <t>Truepic, Inc.</t>
         </is>
       </c>
       <c r="B387">
@@ -4232,7 +4232,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Trust for America’s Health</t>
+          <t>Truman Center for National Policy and Truman National Security Project</t>
         </is>
       </c>
       <c r="B388">
@@ -4242,7 +4242,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Trust for America’s Health</t>
         </is>
       </c>
       <c r="B389">
@@ -4252,7 +4252,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>U.S. Government Accountability Office</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="B390">
@@ -4262,27 +4262,27 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on Homeland Security</t>
+          <t>U.S. Government Accountability Office</t>
         </is>
       </c>
       <c r="B391">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>U.S. House of Representatives, Committee on the Judiciary</t>
+          <t>U.S. House of Representatives, Committee on Homeland Security</t>
         </is>
       </c>
       <c r="B392">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>U.S. Senate Foreign Relations Committee</t>
+          <t>U.S. House of Representatives, Committee on the Judiciary</t>
         </is>
       </c>
       <c r="B393">
@@ -4292,7 +4292,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>U.S. Senate Foreign Relations Committee</t>
         </is>
       </c>
       <c r="B394">
@@ -4302,7 +4302,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>UFW Foundation</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B395">
@@ -4312,27 +4312,27 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>UnidosUS</t>
+          <t>UFW Foundation</t>
         </is>
       </c>
       <c r="B396">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>United Association</t>
+          <t>UnidosUS</t>
         </is>
       </c>
       <c r="B397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
+          <t>United Association</t>
         </is>
       </c>
       <c r="B398">
@@ -4342,7 +4342,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>United Nations Development Program</t>
+          <t>United Association of Plumbers and Pipefitters of the US and Canada</t>
         </is>
       </c>
       <c r="B399">
@@ -4352,27 +4352,27 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>United Nations Foundation</t>
+          <t>United Nations Development Program</t>
         </is>
       </c>
       <c r="B400">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>United States Agency for International Development (Retired)</t>
+          <t>United Nations Foundation</t>
         </is>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>United States Department of Agriculture (Retired)</t>
+          <t>United States Agency for International Development (Retired)</t>
         </is>
       </c>
       <c r="B402">
@@ -4382,7 +4382,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>United States Institute of Peace</t>
+          <t>United States Department of Agriculture (Retired)</t>
         </is>
       </c>
       <c r="B403">
@@ -4392,7 +4392,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>United States Postal Service</t>
+          <t>United States Institute of Peace</t>
         </is>
       </c>
       <c r="B404">
@@ -4402,7 +4402,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>United States Postal Service</t>
         </is>
       </c>
       <c r="B405">
@@ -4412,7 +4412,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Bernie Sanders</t>
+          <t>United States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)</t>
         </is>
       </c>
       <c r="B406">
@@ -4422,7 +4422,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Universidad del Sagrado Corazón in San Juan</t>
+          <t>United States Senate, Office of Senator Bernie Sanders</t>
         </is>
       </c>
       <c r="B407">
@@ -4432,7 +4432,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>University Hospital Newark, NJ</t>
+          <t>Universidad del Sagrado Corazón in San Juan</t>
         </is>
       </c>
       <c r="B408">
@@ -4442,7 +4442,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>University of California</t>
+          <t>University Hospital Newark, NJ</t>
         </is>
       </c>
       <c r="B409">
@@ -4452,57 +4452,57 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>University of California, Berkeley</t>
+          <t>University of California</t>
         </is>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>University of California, Davis</t>
+          <t>University of California, Berkeley</t>
         </is>
       </c>
       <c r="B411">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>University of California, Irvine School of Law</t>
+          <t>University of California, Davis</t>
         </is>
       </c>
       <c r="B412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>University of California, San Francisco</t>
+          <t>University of California, Irvine School of Law</t>
         </is>
       </c>
       <c r="B413">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>University of Chicago, Harris School of Public Policy Studies</t>
+          <t>University of California, San Francisco</t>
         </is>
       </c>
       <c r="B414">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>University of Colorado Boulder</t>
+          <t>University of Chicago, Harris School of Public Policy Studies</t>
         </is>
       </c>
       <c r="B415">
@@ -4512,7 +4512,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>University of Delaware</t>
+          <t>University of Colorado Boulder</t>
         </is>
       </c>
       <c r="B416">
@@ -4522,7 +4522,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>University of Georgia</t>
+          <t>University of Delaware</t>
         </is>
       </c>
       <c r="B417">
@@ -4532,7 +4532,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>University of Iowa</t>
+          <t>University of Georgia</t>
         </is>
       </c>
       <c r="B418">
@@ -4542,7 +4542,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>University of Maryland, College Park</t>
+          <t>University of Iowa</t>
         </is>
       </c>
       <c r="B419">
@@ -4552,7 +4552,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>University of Miami</t>
+          <t>University of Maryland, College Park</t>
         </is>
       </c>
       <c r="B420">
@@ -4562,27 +4562,27 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>University of Michigan</t>
+          <t>University of Miami</t>
         </is>
       </c>
       <c r="B421">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>University of Michigan Law School</t>
+          <t>University of Michigan</t>
         </is>
       </c>
       <c r="B422">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
+          <t>University of Michigan Law School</t>
         </is>
       </c>
       <c r="B423">
@@ -4592,7 +4592,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
+          <t>University of Michigan, Gerald R. Ford School of Public Policy</t>
         </is>
       </c>
       <c r="B424">
@@ -4602,27 +4602,27 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>University of Pennsylvania</t>
+          <t>University of Nevada, Las Vegas, Boyd School of Law</t>
         </is>
       </c>
       <c r="B425">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>University of Pittsburgh</t>
+          <t>University of Pennsylvania</t>
         </is>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>University of Texas at Austin</t>
+          <t>University of Pittsburgh</t>
         </is>
       </c>
       <c r="B427">
@@ -4632,7 +4632,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>University of Texas at Austin, School of Law</t>
+          <t>University of Texas at Austin</t>
         </is>
       </c>
       <c r="B428">
@@ -4642,7 +4642,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Urban Alliance</t>
+          <t>University of Texas at Austin, School of Law</t>
         </is>
       </c>
       <c r="B429">
@@ -4652,47 +4652,47 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Urban Institute</t>
+          <t>Urban Alliance</t>
         </is>
       </c>
       <c r="B430">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
+          <t>Urban Institute</t>
         </is>
       </c>
       <c r="B431">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Values Partnerships</t>
+          <t>US Senate Committee on Agriculture, Nutrition and Forestry</t>
         </is>
       </c>
       <c r="B432">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Velez Security Solutions, LLC</t>
+          <t>Values Partnerships</t>
         </is>
       </c>
       <c r="B433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Via Transportation, Inc</t>
+          <t>Velez Security Solutions, LLC</t>
         </is>
       </c>
       <c r="B434">
@@ -4702,7 +4702,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Virginia Coordinated Campaign</t>
+          <t>Via Transportation, Inc</t>
         </is>
       </c>
       <c r="B435">
@@ -4712,17 +4712,17 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Visa, Inc.</t>
+          <t>Virginia Coordinated Campaign</t>
         </is>
       </c>
       <c r="B436">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
+          <t>Visa, Inc.</t>
         </is>
       </c>
       <c r="B437">
@@ -4732,17 +4732,17 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Washington Center for Equitable Growth</t>
+          <t>Wachtell, Lipton, Rosen &amp; Katz</t>
         </is>
       </c>
       <c r="B438">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Washington Office on Latin America</t>
+          <t>Washington Center for Equitable Growth</t>
         </is>
       </c>
       <c r="B439">
@@ -4752,27 +4752,27 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>WestExec Advisors</t>
+          <t>Washington Office on Latin America</t>
         </is>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>White &amp; Case, LLP</t>
+          <t>WestExec Advisors</t>
         </is>
       </c>
       <c r="B441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Wiley Rein, LLP</t>
+          <t>White &amp; Case, LLP</t>
         </is>
       </c>
       <c r="B442">
@@ -4782,7 +4782,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>WilmerHale, LLC</t>
+          <t>Wiley Rein, LLP</t>
         </is>
       </c>
       <c r="B443">
@@ -4792,7 +4792,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Women of Color Advancing Peace and Security</t>
+          <t>WilmerHale, LLC</t>
         </is>
       </c>
       <c r="B444">
@@ -4802,7 +4802,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>WorkMerk, LLC</t>
+          <t>Women of Color Advancing Peace and Security</t>
         </is>
       </c>
       <c r="B445">
@@ -4812,7 +4812,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>World Resources Institute</t>
+          <t>WorkMerk, LLC</t>
         </is>
       </c>
       <c r="B446">
@@ -4822,7 +4822,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Wyss Foundation</t>
+          <t>World Resources Institute</t>
         </is>
       </c>
       <c r="B447">
@@ -4832,7 +4832,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Yale Law School</t>
+          <t>Wyss Foundation</t>
         </is>
       </c>
       <c r="B448">
@@ -4842,10 +4842,20 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
+          <t>Yale Law School</t>
+        </is>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
           <t>Yale University</t>
         </is>
       </c>
-      <c r="B449">
+      <c r="B450">
         <v>3</v>
       </c>
     </row>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -369,6 +369,66 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arceneaux Strategies, LLC</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arizona House of Representatives</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bessemer Venture Partners</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Georgia Coordinated Campaign</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Presidential Inaugural Committee</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/forlookup.xlsx
+++ b/output/forlookup.xlsx
@@ -422,7 +422,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>United States Senate, Office of Senator Robert P. Casey, Jr. (Retired)</t>
+          <t>WolfBrown</t>
         </is>
       </c>
       <c r="B7">
